--- a/EBAY.xlsx
+++ b/EBAY.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA5281A9-BC9D-41EE-9DA1-391AC9D3D275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADD5E422-773C-4AA7-9542-E28A0C9D1200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" activeTab="1" xr2:uid="{ED1C07FE-A50A-4536-AFF7-C55D5EA00969}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{ED1C07FE-A50A-4536-AFF7-C55D5EA00969}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="54">
   <si>
     <t>Ebay</t>
   </si>
@@ -114,19 +114,10 @@
     <t>G&amp;A</t>
   </si>
   <si>
-    <t>Provisions for Transaction losses</t>
-  </si>
-  <si>
-    <t>Amortization of acquired intag.</t>
-  </si>
-  <si>
     <t>R&amp;D</t>
   </si>
   <si>
     <t>Operating Profit</t>
-  </si>
-  <si>
-    <t>Income from Equity Investments</t>
   </si>
   <si>
     <t>Interest Expense</t>
@@ -169,6 +160,45 @@
   </si>
   <si>
     <t>Tax Rate</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Running Total</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>Q325</t>
+  </si>
+  <si>
+    <t>Q425</t>
+  </si>
+  <si>
+    <t>Transaction losses</t>
+  </si>
+  <si>
+    <t>Amortization</t>
+  </si>
+  <si>
+    <t>Equity Investments</t>
+  </si>
+  <si>
+    <t>Marketplace Revenue</t>
+  </si>
+  <si>
+    <t>Advertising Revenue</t>
   </si>
 </sst>
 </file>
@@ -233,7 +263,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
@@ -243,6 +273,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -581,8 +612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3135467F-95EF-40E7-A419-034BE92A4AF9}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5:I6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -603,7 +634,7 @@
         <v>14</v>
       </c>
       <c r="H2">
-        <v>66.180000000000007</v>
+        <v>93.14</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -611,10 +642,10 @@
         <v>15</v>
       </c>
       <c r="H3" s="4">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -626,7 +657,7 @@
       </c>
       <c r="H4" s="4">
         <f>+H2*H3</f>
-        <v>30839.880000000005</v>
+        <v>42564.98</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -637,11 +668,11 @@
         <v>17</v>
       </c>
       <c r="H5" s="4">
-        <f>1589+3302</f>
-        <v>4891</v>
+        <f>2070+1680</f>
+        <v>3750</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -649,11 +680,11 @@
         <v>18</v>
       </c>
       <c r="H6" s="4">
-        <f>1243+6175</f>
-        <v>7418</v>
+        <f>1746+5002</f>
+        <v>6748</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -662,7 +693,7 @@
       </c>
       <c r="H7" s="4">
         <f>+H4-H5+H6</f>
-        <v>33366.880000000005</v>
+        <v>45562.98</v>
       </c>
     </row>
   </sheetData>
@@ -672,13 +703,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A8A4D81-598D-4355-8C6E-5A128DF97FC3}">
-  <dimension ref="A1:BV497"/>
+  <dimension ref="A1:BV499"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomRight" activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -717,10 +748,22 @@
       <c r="J2" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="K2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="3" spans="1:74" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4">
@@ -730,7 +773,9 @@
         <v>17991</v>
       </c>
       <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
+      <c r="G3" s="4">
+        <v>18623</v>
+      </c>
       <c r="H3" s="4">
         <v>18418</v>
       </c>
@@ -738,8 +783,12 @@
         <v>18306</v>
       </c>
       <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
+      <c r="K3" s="4">
+        <v>18753</v>
+      </c>
+      <c r="L3" s="4">
+        <v>19514</v>
+      </c>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
@@ -805,30 +854,39 @@
     </row>
     <row r="4" spans="1:74" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="6">
-        <f>+D7/D3</f>
+        <f>+D8/D3</f>
         <v>0.13945316789282969</v>
       </c>
       <c r="E4" s="6">
-        <f>+E7/E3</f>
+        <f>+E8/E3</f>
         <v>0.13895836807292536</v>
       </c>
       <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+      <c r="G4" s="6">
+        <f>+G8/G3</f>
+        <v>0.13724963754497127</v>
+      </c>
       <c r="H4" s="6">
-        <f>+H7/H3</f>
+        <f>+H8/H3</f>
         <v>0.13964599847974807</v>
       </c>
       <c r="I4" s="6">
-        <f>+I7/I3</f>
+        <f>+I8/I3</f>
         <v>0.14071888998142684</v>
       </c>
       <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
+      <c r="K4" s="6">
+        <f>+K8/K3</f>
+        <v>0.13784461152882205</v>
+      </c>
+      <c r="L4" s="6">
+        <f>+L8/L3</f>
+        <v>0.13989955929076561</v>
+      </c>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
@@ -967,16 +1025,27 @@
       <c r="BV5" s="4"/>
     </row>
     <row r="6" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
+      <c r="G6" s="4">
+        <v>2172</v>
+      </c>
+      <c r="H6" s="4">
+        <v>2174</v>
+      </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
+      <c r="K6" s="4">
+        <v>2143</v>
+      </c>
+      <c r="L6" s="4">
+        <v>2248</v>
+      </c>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
@@ -1042,26 +1111,26 @@
     </row>
     <row r="7" spans="1:74" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="4">
-        <v>2540</v>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4">
+        <v>384</v>
       </c>
-      <c r="E7" s="4">
-        <v>2500</v>
+      <c r="H7" s="4">
+        <v>398</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4">
-        <v>2572</v>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4">
+        <v>442</v>
       </c>
-      <c r="I7" s="4">
-        <v>2576</v>
+      <c r="L7" s="4">
+        <v>482</v>
       </c>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
@@ -1126,28 +1195,34 @@
       <c r="BV7" s="4"/>
     </row>
     <row r="8" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>21</v>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4">
-        <v>718</v>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7">
+        <v>2540</v>
       </c>
-      <c r="E8" s="4">
-        <v>705</v>
+      <c r="E8" s="7">
+        <v>2500</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4">
-        <v>735</v>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7">
+        <v>2556</v>
       </c>
-      <c r="I8" s="4">
-        <v>727</v>
+      <c r="H8" s="7">
+        <v>2572</v>
       </c>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
+      <c r="I8" s="7">
+        <v>2576</v>
+      </c>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7">
+        <v>2585</v>
+      </c>
+      <c r="L8" s="7">
+        <v>2730</v>
+      </c>
+      <c r="M8" s="7"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
@@ -1212,42 +1287,32 @@
     </row>
     <row r="9" spans="1:74" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
-      <c r="C9" s="4">
-        <f t="shared" ref="C9:G9" si="0">+C7-C8</f>
-        <v>0</v>
-      </c>
+      <c r="C9" s="4"/>
       <c r="D9" s="4">
-        <f t="shared" si="0"/>
-        <v>1822</v>
+        <v>718</v>
       </c>
       <c r="E9" s="4">
-        <f t="shared" si="0"/>
-        <v>1795</v>
+        <v>705</v>
       </c>
-      <c r="F9" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="F9" s="4"/>
       <c r="G9" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="H9" s="4">
-        <f>+H7-H8</f>
-        <v>1837</v>
+        <v>735</v>
       </c>
       <c r="I9" s="4">
-        <f t="shared" ref="I9:J9" si="1">+I7-I8</f>
-        <v>1849</v>
+        <v>727</v>
       </c>
-      <c r="J9" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4">
+        <v>723</v>
       </c>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
+      <c r="L9" s="4">
+        <v>776</v>
+      </c>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
@@ -1313,28 +1378,56 @@
     </row>
     <row r="10" spans="1:74" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
-      <c r="C10" s="4"/>
+      <c r="C10" s="4">
+        <f t="shared" ref="C10:G10" si="0">+C8-C9</f>
+        <v>0</v>
+      </c>
       <c r="D10" s="4">
-        <v>566</v>
+        <f t="shared" si="0"/>
+        <v>1822</v>
       </c>
       <c r="E10" s="4">
-        <v>567</v>
+        <f t="shared" si="0"/>
+        <v>1795</v>
       </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
+      <c r="F10" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="4">
+        <f t="shared" si="0"/>
+        <v>1856</v>
+      </c>
       <c r="H10" s="4">
-        <v>577</v>
+        <f>+H8-H9</f>
+        <v>1837</v>
       </c>
       <c r="I10" s="4">
-        <v>592</v>
+        <f t="shared" ref="I10:N10" si="1">+I8-I9</f>
+        <v>1849</v>
       </c>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
+      <c r="J10" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="4">
+        <f t="shared" si="1"/>
+        <v>1862</v>
+      </c>
+      <c r="L10" s="4">
+        <f t="shared" si="1"/>
+        <v>1954</v>
+      </c>
+      <c r="M10" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N10" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
@@ -1398,26 +1491,32 @@
     </row>
     <row r="11" spans="1:74" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4">
-        <v>392</v>
+        <v>566</v>
       </c>
       <c r="E11" s="4">
-        <v>401</v>
+        <v>567</v>
       </c>
       <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
+      <c r="G11" s="4">
+        <v>541</v>
+      </c>
       <c r="H11" s="4">
-        <v>379</v>
+        <v>577</v>
       </c>
       <c r="I11" s="4">
-        <v>374</v>
+        <v>592</v>
       </c>
       <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
+      <c r="K11" s="4">
+        <v>536</v>
+      </c>
+      <c r="L11" s="4">
+        <v>586</v>
+      </c>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
@@ -1483,26 +1582,32 @@
     </row>
     <row r="12" spans="1:74" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4">
-        <v>251</v>
+        <v>392</v>
       </c>
       <c r="E12" s="4">
-        <v>283</v>
+        <v>401</v>
       </c>
       <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
+      <c r="G12" s="4">
+        <v>351</v>
+      </c>
       <c r="H12" s="4">
-        <v>241</v>
+        <v>379</v>
       </c>
       <c r="I12" s="4">
-        <v>194</v>
+        <v>374</v>
       </c>
       <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
+      <c r="K12" s="4">
+        <v>362</v>
+      </c>
+      <c r="L12" s="4">
+        <v>421</v>
+      </c>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
@@ -1568,26 +1673,32 @@
     </row>
     <row r="13" spans="1:74" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4">
-        <v>90</v>
+        <v>251</v>
       </c>
       <c r="E13" s="4">
-        <v>85</v>
+        <v>283</v>
       </c>
       <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
+      <c r="G13" s="4">
+        <v>238</v>
+      </c>
       <c r="H13" s="4">
-        <v>86</v>
+        <v>241</v>
       </c>
       <c r="I13" s="4">
-        <v>89</v>
+        <v>194</v>
       </c>
       <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
+      <c r="K13" s="4">
+        <v>261</v>
+      </c>
+      <c r="L13" s="4">
+        <v>371</v>
+      </c>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
@@ -1653,26 +1764,32 @@
     </row>
     <row r="14" spans="1:74" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="E14" s="4">
-        <v>4</v>
+        <v>85</v>
       </c>
       <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
+      <c r="G14" s="4">
+        <v>91</v>
+      </c>
       <c r="H14" s="4">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="I14" s="4">
-        <v>5</v>
+        <v>89</v>
       </c>
       <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
+      <c r="K14" s="4">
+        <v>81</v>
+      </c>
+      <c r="L14" s="4">
+        <v>86</v>
+      </c>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
@@ -1738,42 +1855,32 @@
     </row>
     <row r="15" spans="1:74" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
-      <c r="C15" s="4">
-        <f t="shared" ref="C15:G15" si="2">+C9-SUM(C10:C14)</f>
-        <v>0</v>
-      </c>
+      <c r="C15" s="4"/>
       <c r="D15" s="4">
-        <f t="shared" si="2"/>
-        <v>518</v>
+        <v>5</v>
       </c>
       <c r="E15" s="4">
-        <f t="shared" si="2"/>
-        <v>455</v>
+        <v>4</v>
       </c>
-      <c r="F15" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="F15" s="4"/>
       <c r="G15" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H15" s="4">
-        <f>+H9-SUM(H10:H14)</f>
-        <v>549</v>
+        <v>5</v>
       </c>
       <c r="I15" s="4">
-        <f t="shared" ref="I15:J15" si="3">+I9-SUM(I10:I14)</f>
-        <v>595</v>
+        <v>5</v>
       </c>
-      <c r="J15" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4">
+        <v>6</v>
       </c>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
+      <c r="L15" s="4">
+        <v>6</v>
+      </c>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
@@ -1839,28 +1946,56 @@
     </row>
     <row r="16" spans="1:74" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
-      <c r="C16" s="4"/>
+      <c r="C16" s="4">
+        <f t="shared" ref="C16:G16" si="2">+C10-SUM(C11:C15)</f>
+        <v>0</v>
+      </c>
       <c r="D16" s="4">
-        <v>-214</v>
+        <f t="shared" si="2"/>
+        <v>518</v>
       </c>
       <c r="E16" s="4">
-        <v>1212</v>
+        <f t="shared" si="2"/>
+        <v>455</v>
       </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
+      <c r="F16" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="4">
+        <f t="shared" si="2"/>
+        <v>631</v>
+      </c>
       <c r="H16" s="4">
-        <v>-222</v>
+        <f>+H10-SUM(H11:H15)</f>
+        <v>549</v>
       </c>
       <c r="I16" s="4">
-        <v>199</v>
+        <f t="shared" ref="I16:N16" si="3">+I10-SUM(I11:I15)</f>
+        <v>595</v>
       </c>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
+      <c r="J16" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="4">
+        <f t="shared" si="3"/>
+        <v>616</v>
+      </c>
+      <c r="L16" s="4">
+        <f t="shared" si="3"/>
+        <v>484</v>
+      </c>
+      <c r="M16" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N16" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
@@ -1924,26 +2059,32 @@
     </row>
     <row r="17" spans="2:74" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4">
-        <v>65</v>
+        <v>-214</v>
       </c>
       <c r="E17" s="4">
-        <v>65</v>
+        <v>1212</v>
       </c>
       <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
+      <c r="G17" s="4">
+        <v>-97</v>
+      </c>
       <c r="H17" s="4">
-        <v>65</v>
+        <v>-222</v>
       </c>
       <c r="I17" s="4">
-        <v>63</v>
+        <v>199</v>
       </c>
       <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
+      <c r="K17" s="4">
+        <v>-2</v>
+      </c>
+      <c r="L17" s="4">
+        <v>-4</v>
+      </c>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
@@ -2009,26 +2150,32 @@
     </row>
     <row r="18" spans="2:74" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="E18" s="4">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4">
+      <c r="G18" s="4">
         <v>66</v>
       </c>
+      <c r="H18" s="4">
+        <v>65</v>
+      </c>
       <c r="I18" s="4">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
+      <c r="K18" s="4">
+        <v>61</v>
+      </c>
+      <c r="L18" s="4">
+        <v>62</v>
+      </c>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
@@ -2094,42 +2241,32 @@
     </row>
     <row r="19" spans="2:74" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
-      <c r="C19" s="4">
-        <f t="shared" ref="C19:G19" si="4">+C15+C16-C17+C18</f>
-        <v>0</v>
-      </c>
+      <c r="C19" s="4"/>
       <c r="D19" s="4">
-        <f t="shared" si="4"/>
-        <v>285</v>
+        <v>46</v>
       </c>
       <c r="E19" s="4">
-        <f t="shared" si="4"/>
-        <v>1661</v>
+        <v>59</v>
       </c>
-      <c r="F19" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="F19" s="4"/>
       <c r="G19" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="H19" s="4">
-        <f>+H15+H16-H17+H18</f>
-        <v>328</v>
+        <v>66</v>
       </c>
       <c r="I19" s="4">
-        <f t="shared" ref="I19:J19" si="5">+I15+I16-I17+I18</f>
-        <v>797</v>
+        <v>66</v>
       </c>
-      <c r="J19" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4">
+        <v>81</v>
       </c>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
+      <c r="L19" s="4">
+        <v>59</v>
+      </c>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
@@ -2195,28 +2332,56 @@
     </row>
     <row r="20" spans="2:74" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
-      <c r="C20" s="4"/>
+      <c r="C20" s="4">
+        <f t="shared" ref="C20:G20" si="4">+C16+C17-C18+C19</f>
+        <v>0</v>
+      </c>
       <c r="D20" s="4">
-        <v>113</v>
+        <f t="shared" si="4"/>
+        <v>285</v>
       </c>
       <c r="E20" s="4">
-        <v>355</v>
+        <f t="shared" si="4"/>
+        <v>1661</v>
       </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
+      <c r="F20" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="4">
+        <f t="shared" si="4"/>
+        <v>536</v>
+      </c>
       <c r="H20" s="4">
-        <v>102</v>
+        <f>+H16+H17-H18+H19</f>
+        <v>328</v>
       </c>
       <c r="I20" s="4">
-        <v>161</v>
+        <f t="shared" ref="I20:N20" si="5">+I16+I17-I18+I19</f>
+        <v>797</v>
       </c>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
+      <c r="J20" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="4">
+        <f t="shared" si="5"/>
+        <v>634</v>
+      </c>
+      <c r="L20" s="4">
+        <f t="shared" si="5"/>
+        <v>477</v>
+      </c>
+      <c r="M20" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N20" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="O20" s="4"/>
       <c r="P20" s="4"/>
       <c r="Q20" s="4"/>
@@ -2280,42 +2445,32 @@
     </row>
     <row r="21" spans="2:74" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
-      <c r="C21" s="4">
-        <f t="shared" ref="C21:G21" si="6">+C19-C20</f>
-        <v>0</v>
-      </c>
+      <c r="C21" s="4"/>
       <c r="D21" s="4">
-        <f t="shared" si="6"/>
-        <v>172</v>
+        <v>113</v>
       </c>
       <c r="E21" s="4">
-        <f t="shared" si="6"/>
-        <v>1306</v>
+        <v>355</v>
       </c>
-      <c r="F21" s="4">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
+      <c r="F21" s="4"/>
       <c r="G21" s="4">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="H21" s="4">
-        <f>+H19-H20</f>
-        <v>226</v>
+        <v>102</v>
       </c>
       <c r="I21" s="4">
-        <f t="shared" ref="I21:J21" si="7">+I19-I20</f>
-        <v>636</v>
+        <v>161</v>
       </c>
-      <c r="J21" s="4">
-        <f t="shared" si="7"/>
-        <v>0</v>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4">
+        <v>129</v>
       </c>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
+      <c r="L21" s="4">
+        <v>108</v>
+      </c>
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
@@ -2381,28 +2536,56 @@
     </row>
     <row r="22" spans="2:74" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
-      <c r="C22" s="4"/>
+      <c r="C22" s="4">
+        <f t="shared" ref="C22:G22" si="6">+C20-C21</f>
+        <v>0</v>
+      </c>
       <c r="D22" s="4">
-        <v>-1</v>
+        <f t="shared" si="6"/>
+        <v>172</v>
       </c>
       <c r="E22" s="4">
-        <v>-1</v>
+        <f t="shared" si="6"/>
+        <v>1306</v>
       </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
+      <c r="F22" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="4">
+        <f t="shared" si="6"/>
+        <v>439</v>
+      </c>
       <c r="H22" s="4">
-        <v>-2</v>
+        <f>+H20-H21</f>
+        <v>226</v>
       </c>
       <c r="I22" s="4">
-        <v>-2</v>
+        <f t="shared" ref="I22:N22" si="7">+I20-I21</f>
+        <v>636</v>
       </c>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
+      <c r="J22" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="4">
+        <f t="shared" si="7"/>
+        <v>505</v>
+      </c>
+      <c r="L22" s="4">
+        <f t="shared" si="7"/>
+        <v>369</v>
+      </c>
+      <c r="M22" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N22" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
@@ -2466,42 +2649,32 @@
     </row>
     <row r="23" spans="2:74" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
-      <c r="C23" s="4">
-        <f t="shared" ref="C23:G23" si="8">+C21+C22</f>
-        <v>0</v>
-      </c>
+      <c r="C23" s="4"/>
       <c r="D23" s="4">
-        <f t="shared" si="8"/>
-        <v>171</v>
+        <v>-1</v>
       </c>
       <c r="E23" s="4">
-        <f t="shared" si="8"/>
-        <v>1305</v>
+        <v>-1</v>
       </c>
-      <c r="F23" s="4">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
+      <c r="F23" s="4"/>
       <c r="G23" s="4">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H23" s="4">
-        <f>+H21+H22</f>
-        <v>224</v>
+        <v>-2</v>
       </c>
       <c r="I23" s="4">
-        <f t="shared" ref="I23:J23" si="9">+I21+I22</f>
-        <v>634</v>
+        <v>-2</v>
       </c>
-      <c r="J23" s="4">
-        <f t="shared" si="9"/>
-        <v>0</v>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4">
+        <v>-2</v>
       </c>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
+      <c r="L23" s="4">
+        <v>-1</v>
+      </c>
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
@@ -2566,18 +2739,57 @@
       <c r="BV23" s="4"/>
     </row>
     <row r="24" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
+      <c r="B24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="4">
+        <f t="shared" ref="C24:G24" si="8">+C22+C23</f>
+        <v>0</v>
+      </c>
+      <c r="D24" s="4">
+        <f t="shared" si="8"/>
+        <v>171</v>
+      </c>
+      <c r="E24" s="4">
+        <f t="shared" si="8"/>
+        <v>1305</v>
+      </c>
+      <c r="F24" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="4">
+        <f t="shared" si="8"/>
+        <v>438</v>
+      </c>
+      <c r="H24" s="4">
+        <f>+H22+H23</f>
+        <v>224</v>
+      </c>
+      <c r="I24" s="4">
+        <f t="shared" ref="I24:N24" si="9">+I22+I23</f>
+        <v>634</v>
+      </c>
+      <c r="J24" s="4">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K24" s="4">
+        <f t="shared" si="9"/>
+        <v>503</v>
+      </c>
+      <c r="L24" s="4">
+        <f t="shared" si="9"/>
+        <v>368</v>
+      </c>
+      <c r="M24" s="4">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N24" s="4">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="O24" s="4"/>
       <c r="P24" s="4"/>
       <c r="Q24" s="4"/>
@@ -2640,24 +2852,13 @@
       <c r="BV24" s="4"/>
     </row>
     <row r="25" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>15</v>
-      </c>
       <c r="C25" s="4"/>
-      <c r="D25" s="4">
-        <v>534</v>
-      </c>
-      <c r="E25" s="4">
-        <v>529</v>
-      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
-      <c r="H25" s="4">
-        <v>503</v>
-      </c>
-      <c r="I25" s="4">
-        <v>487</v>
-      </c>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
@@ -2729,41 +2930,53 @@
         <v>20</v>
       </c>
       <c r="C26" s="5" t="e">
-        <f t="shared" ref="C26:G26" si="10">+C23/C25</f>
+        <f>+C24/C27</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D26" s="5">
-        <f t="shared" si="10"/>
+        <f>+D24/D27</f>
         <v>0.3202247191011236</v>
       </c>
       <c r="E26" s="5">
-        <f t="shared" si="10"/>
+        <f>+E24/E27</f>
         <v>2.4669187145557654</v>
       </c>
       <c r="F26" s="5" t="e">
+        <f>+F24/F27</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G26" s="5">
+        <f>+G24/G27</f>
+        <v>0.84883720930232553</v>
+      </c>
+      <c r="H26" s="5">
+        <f>+H24/H27</f>
+        <v>0.44532803180914515</v>
+      </c>
+      <c r="I26" s="5">
+        <f>+I24/I27</f>
+        <v>1.3018480492813143</v>
+      </c>
+      <c r="J26" s="5" t="e">
+        <f>+J24/J27</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K26" s="5">
+        <f t="shared" ref="K26:N26" si="10">+K24/K27</f>
+        <v>1.0770877944325481</v>
+      </c>
+      <c r="L26" s="5">
+        <f t="shared" si="10"/>
+        <v>0.79826464208242953</v>
+      </c>
+      <c r="M26" s="5" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G26" s="5" t="e">
+      <c r="N26" s="5" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H26" s="5">
-        <f>+H23/H25</f>
-        <v>0.44532803180914515</v>
-      </c>
-      <c r="I26" s="5">
-        <f t="shared" ref="I26:J26" si="11">+I23/I25</f>
-        <v>1.3018480492813143</v>
-      </c>
-      <c r="J26" s="5" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
       <c r="O26" s="4"/>
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
@@ -2826,16 +3039,33 @@
       <c r="BV26" s="4"/>
     </row>
     <row r="27" spans="2:74" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>15</v>
+      </c>
       <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
+      <c r="D27" s="4">
+        <v>534</v>
+      </c>
+      <c r="E27" s="4">
+        <v>529</v>
+      </c>
       <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
+      <c r="G27" s="4">
+        <v>516</v>
+      </c>
+      <c r="H27" s="4">
+        <v>503</v>
+      </c>
+      <c r="I27" s="4">
+        <v>487</v>
+      </c>
       <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
+      <c r="K27" s="4">
+        <v>467</v>
+      </c>
+      <c r="L27" s="4">
+        <v>461</v>
+      </c>
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
@@ -2899,99 +3129,13 @@
       <c r="BU27" s="4"/>
       <c r="BV27" s="4"/>
     </row>
-    <row r="28" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>39</v>
-      </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="6">
-        <f>+H3/D3-1</f>
-        <v>1.1200175689030312E-2</v>
-      </c>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="4"/>
-      <c r="S28" s="4"/>
-      <c r="T28" s="4"/>
-      <c r="U28" s="4"/>
-      <c r="V28" s="4"/>
-      <c r="W28" s="4"/>
-      <c r="X28" s="4"/>
-      <c r="Y28" s="4"/>
-      <c r="Z28" s="4"/>
-      <c r="AA28" s="4"/>
-      <c r="AB28" s="4"/>
-      <c r="AC28" s="4"/>
-      <c r="AD28" s="4"/>
-      <c r="AE28" s="4"/>
-      <c r="AF28" s="4"/>
-      <c r="AG28" s="4"/>
-      <c r="AH28" s="4"/>
-      <c r="AI28" s="4"/>
-      <c r="AJ28" s="4"/>
-      <c r="AK28" s="4"/>
-      <c r="AL28" s="4"/>
-      <c r="AM28" s="4"/>
-      <c r="AN28" s="4"/>
-      <c r="AO28" s="4"/>
-      <c r="AP28" s="4"/>
-      <c r="AQ28" s="4"/>
-      <c r="AR28" s="4"/>
-      <c r="AS28" s="4"/>
-      <c r="AT28" s="4"/>
-      <c r="AU28" s="4"/>
-      <c r="AV28" s="4"/>
-      <c r="AW28" s="4"/>
-      <c r="AX28" s="4"/>
-      <c r="AY28" s="4"/>
-      <c r="AZ28" s="4"/>
-      <c r="BA28" s="4"/>
-      <c r="BB28" s="4"/>
-      <c r="BC28" s="4"/>
-      <c r="BD28" s="4"/>
-      <c r="BE28" s="4"/>
-      <c r="BF28" s="4"/>
-      <c r="BG28" s="4"/>
-      <c r="BH28" s="4"/>
-      <c r="BI28" s="4"/>
-      <c r="BJ28" s="4"/>
-      <c r="BK28" s="4"/>
-      <c r="BL28" s="4"/>
-      <c r="BM28" s="4"/>
-      <c r="BN28" s="4"/>
-      <c r="BO28" s="4"/>
-      <c r="BP28" s="4"/>
-      <c r="BQ28" s="4"/>
-      <c r="BR28" s="4"/>
-      <c r="BS28" s="4"/>
-      <c r="BT28" s="4"/>
-      <c r="BU28" s="4"/>
-      <c r="BV28" s="4"/>
-    </row>
     <row r="29" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>40</v>
-      </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
-      <c r="H29" s="6">
-        <f>+H7/D7-1</f>
-        <v>1.2598425196850505E-2</v>
-      </c>
+      <c r="H29" s="4"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
@@ -3061,40 +3205,19 @@
     </row>
     <row r="30" spans="2:74" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
-      <c r="C30" s="6" t="e">
-        <f t="shared" ref="C30:G30" si="12">+C9/C7</f>
-        <v>#DIV/0!</v>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="6">
+        <f>+H3/D3-1</f>
+        <v>1.1200175689030312E-2</v>
       </c>
-      <c r="D30" s="6">
-        <f t="shared" si="12"/>
-        <v>0.71732283464566926</v>
-      </c>
-      <c r="E30" s="6">
-        <f t="shared" si="12"/>
-        <v>0.71799999999999997</v>
-      </c>
-      <c r="F30" s="6" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G30" s="6" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H30" s="6">
-        <f>+H9/H7</f>
-        <v>0.71423017107309483</v>
-      </c>
-      <c r="I30" s="6">
-        <f t="shared" ref="I30:J30" si="13">+I9/I7</f>
-        <v>0.71777950310559002</v>
-      </c>
-      <c r="J30" s="6" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
       <c r="M30" s="4"/>
@@ -3162,40 +3285,19 @@
     </row>
     <row r="31" spans="2:74" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
-      <c r="C31" s="6" t="e">
-        <f t="shared" ref="C31:G31" si="14">+C15/C7</f>
-        <v>#DIV/0!</v>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="6">
+        <f>+H8/D8-1</f>
+        <v>1.2598425196850505E-2</v>
       </c>
-      <c r="D31" s="6">
-        <f t="shared" si="14"/>
-        <v>0.20393700787401575</v>
-      </c>
-      <c r="E31" s="6">
-        <f t="shared" si="14"/>
-        <v>0.182</v>
-      </c>
-      <c r="F31" s="6" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G31" s="6" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H31" s="6">
-        <f>+H15/H7</f>
-        <v>0.21345256609642302</v>
-      </c>
-      <c r="I31" s="6">
-        <f t="shared" ref="I31:J31" si="15">+I15/I7</f>
-        <v>0.23097826086956522</v>
-      </c>
-      <c r="J31" s="6" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
       <c r="M31" s="4"/>
@@ -3263,38 +3365,38 @@
     </row>
     <row r="32" spans="2:74" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C32" s="6" t="e">
-        <f t="shared" ref="C32:G32" si="16">+C20/C19</f>
+        <f t="shared" ref="C32:G32" si="11">+C10/C8</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D32" s="6">
-        <f t="shared" si="16"/>
-        <v>0.39649122807017545</v>
+        <f t="shared" si="11"/>
+        <v>0.71732283464566926</v>
       </c>
       <c r="E32" s="6">
-        <f t="shared" si="16"/>
-        <v>0.21372667068031306</v>
+        <f t="shared" si="11"/>
+        <v>0.71799999999999997</v>
       </c>
       <c r="F32" s="6" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G32" s="6" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
+      <c r="G32" s="6">
+        <f t="shared" si="11"/>
+        <v>0.72613458528951491</v>
       </c>
       <c r="H32" s="6">
-        <f>+H20/H19</f>
-        <v>0.31097560975609756</v>
+        <f>+H10/H8</f>
+        <v>0.71423017107309483</v>
       </c>
       <c r="I32" s="6">
-        <f t="shared" ref="I32:J32" si="17">+I20/I19</f>
-        <v>0.20200752823086573</v>
+        <f t="shared" ref="I32:J32" si="12">+I10/I8</f>
+        <v>0.71777950310559002</v>
       </c>
       <c r="J32" s="6" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K32" s="4"/>
@@ -3362,15 +3464,42 @@
       <c r="BU32" s="4"/>
       <c r="BV32" s="4"/>
     </row>
-    <row r="33" spans="3:74" x14ac:dyDescent="0.25">
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
+    <row r="33" spans="2:74" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="6" t="e">
+        <f t="shared" ref="C33:G33" si="13">+C16/C8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D33" s="6">
+        <f t="shared" si="13"/>
+        <v>0.20393700787401575</v>
+      </c>
+      <c r="E33" s="6">
+        <f t="shared" si="13"/>
+        <v>0.182</v>
+      </c>
+      <c r="F33" s="6" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G33" s="6">
+        <f t="shared" si="13"/>
+        <v>0.24687010954616589</v>
+      </c>
+      <c r="H33" s="6">
+        <f>+H16/H8</f>
+        <v>0.21345256609642302</v>
+      </c>
+      <c r="I33" s="6">
+        <f t="shared" ref="I33:J33" si="14">+I16/I8</f>
+        <v>0.23097826086956522</v>
+      </c>
+      <c r="J33" s="6" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
@@ -3436,15 +3565,42 @@
       <c r="BU33" s="4"/>
       <c r="BV33" s="4"/>
     </row>
-    <row r="34" spans="3:74" x14ac:dyDescent="0.25">
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
+    <row r="34" spans="2:74" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="6" t="e">
+        <f t="shared" ref="C34:G34" si="15">+C21/C20</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D34" s="6">
+        <f t="shared" si="15"/>
+        <v>0.39649122807017545</v>
+      </c>
+      <c r="E34" s="6">
+        <f t="shared" si="15"/>
+        <v>0.21372667068031306</v>
+      </c>
+      <c r="F34" s="6" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G34" s="6">
+        <f t="shared" si="15"/>
+        <v>0.18097014925373134</v>
+      </c>
+      <c r="H34" s="6">
+        <f>+H21/H20</f>
+        <v>0.31097560975609756</v>
+      </c>
+      <c r="I34" s="6">
+        <f t="shared" ref="I34:J34" si="16">+I21/I20</f>
+        <v>0.20200752823086573</v>
+      </c>
+      <c r="J34" s="6" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
@@ -3510,7 +3666,7 @@
       <c r="BU34" s="4"/>
       <c r="BV34" s="4"/>
     </row>
-    <row r="35" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:74" x14ac:dyDescent="0.25">
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
@@ -3584,7 +3740,7 @@
       <c r="BU35" s="4"/>
       <c r="BV35" s="4"/>
     </row>
-    <row r="36" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:74" x14ac:dyDescent="0.25">
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
@@ -3658,7 +3814,7 @@
       <c r="BU36" s="4"/>
       <c r="BV36" s="4"/>
     </row>
-    <row r="37" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:74" x14ac:dyDescent="0.25">
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
@@ -3732,7 +3888,7 @@
       <c r="BU37" s="4"/>
       <c r="BV37" s="4"/>
     </row>
-    <row r="38" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:74" x14ac:dyDescent="0.25">
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
@@ -3806,7 +3962,7 @@
       <c r="BU38" s="4"/>
       <c r="BV38" s="4"/>
     </row>
-    <row r="39" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:74" x14ac:dyDescent="0.25">
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
@@ -3880,7 +4036,7 @@
       <c r="BU39" s="4"/>
       <c r="BV39" s="4"/>
     </row>
-    <row r="40" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:74" x14ac:dyDescent="0.25">
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
@@ -3954,7 +4110,7 @@
       <c r="BU40" s="4"/>
       <c r="BV40" s="4"/>
     </row>
-    <row r="41" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:74" x14ac:dyDescent="0.25">
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
@@ -4028,7 +4184,7 @@
       <c r="BU41" s="4"/>
       <c r="BV41" s="4"/>
     </row>
-    <row r="42" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:74" x14ac:dyDescent="0.25">
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
@@ -4102,7 +4258,7 @@
       <c r="BU42" s="4"/>
       <c r="BV42" s="4"/>
     </row>
-    <row r="43" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:74" x14ac:dyDescent="0.25">
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
@@ -4176,7 +4332,7 @@
       <c r="BU43" s="4"/>
       <c r="BV43" s="4"/>
     </row>
-    <row r="44" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:74" x14ac:dyDescent="0.25">
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
@@ -4250,7 +4406,7 @@
       <c r="BU44" s="4"/>
       <c r="BV44" s="4"/>
     </row>
-    <row r="45" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:74" x14ac:dyDescent="0.25">
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
@@ -4324,7 +4480,7 @@
       <c r="BU45" s="4"/>
       <c r="BV45" s="4"/>
     </row>
-    <row r="46" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:74" x14ac:dyDescent="0.25">
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
@@ -4398,7 +4554,7 @@
       <c r="BU46" s="4"/>
       <c r="BV46" s="4"/>
     </row>
-    <row r="47" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:74" x14ac:dyDescent="0.25">
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
@@ -4472,7 +4628,7 @@
       <c r="BU47" s="4"/>
       <c r="BV47" s="4"/>
     </row>
-    <row r="48" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:74" x14ac:dyDescent="0.25">
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
@@ -37772,6 +37928,154 @@
       <c r="BU497" s="4"/>
       <c r="BV497" s="4"/>
     </row>
+    <row r="498" spans="3:74" x14ac:dyDescent="0.25">
+      <c r="C498" s="4"/>
+      <c r="D498" s="4"/>
+      <c r="E498" s="4"/>
+      <c r="F498" s="4"/>
+      <c r="G498" s="4"/>
+      <c r="H498" s="4"/>
+      <c r="I498" s="4"/>
+      <c r="J498" s="4"/>
+      <c r="K498" s="4"/>
+      <c r="L498" s="4"/>
+      <c r="M498" s="4"/>
+      <c r="N498" s="4"/>
+      <c r="O498" s="4"/>
+      <c r="P498" s="4"/>
+      <c r="Q498" s="4"/>
+      <c r="R498" s="4"/>
+      <c r="S498" s="4"/>
+      <c r="T498" s="4"/>
+      <c r="U498" s="4"/>
+      <c r="V498" s="4"/>
+      <c r="W498" s="4"/>
+      <c r="X498" s="4"/>
+      <c r="Y498" s="4"/>
+      <c r="Z498" s="4"/>
+      <c r="AA498" s="4"/>
+      <c r="AB498" s="4"/>
+      <c r="AC498" s="4"/>
+      <c r="AD498" s="4"/>
+      <c r="AE498" s="4"/>
+      <c r="AF498" s="4"/>
+      <c r="AG498" s="4"/>
+      <c r="AH498" s="4"/>
+      <c r="AI498" s="4"/>
+      <c r="AJ498" s="4"/>
+      <c r="AK498" s="4"/>
+      <c r="AL498" s="4"/>
+      <c r="AM498" s="4"/>
+      <c r="AN498" s="4"/>
+      <c r="AO498" s="4"/>
+      <c r="AP498" s="4"/>
+      <c r="AQ498" s="4"/>
+      <c r="AR498" s="4"/>
+      <c r="AS498" s="4"/>
+      <c r="AT498" s="4"/>
+      <c r="AU498" s="4"/>
+      <c r="AV498" s="4"/>
+      <c r="AW498" s="4"/>
+      <c r="AX498" s="4"/>
+      <c r="AY498" s="4"/>
+      <c r="AZ498" s="4"/>
+      <c r="BA498" s="4"/>
+      <c r="BB498" s="4"/>
+      <c r="BC498" s="4"/>
+      <c r="BD498" s="4"/>
+      <c r="BE498" s="4"/>
+      <c r="BF498" s="4"/>
+      <c r="BG498" s="4"/>
+      <c r="BH498" s="4"/>
+      <c r="BI498" s="4"/>
+      <c r="BJ498" s="4"/>
+      <c r="BK498" s="4"/>
+      <c r="BL498" s="4"/>
+      <c r="BM498" s="4"/>
+      <c r="BN498" s="4"/>
+      <c r="BO498" s="4"/>
+      <c r="BP498" s="4"/>
+      <c r="BQ498" s="4"/>
+      <c r="BR498" s="4"/>
+      <c r="BS498" s="4"/>
+      <c r="BT498" s="4"/>
+      <c r="BU498" s="4"/>
+      <c r="BV498" s="4"/>
+    </row>
+    <row r="499" spans="3:74" x14ac:dyDescent="0.25">
+      <c r="C499" s="4"/>
+      <c r="D499" s="4"/>
+      <c r="E499" s="4"/>
+      <c r="F499" s="4"/>
+      <c r="G499" s="4"/>
+      <c r="H499" s="4"/>
+      <c r="I499" s="4"/>
+      <c r="J499" s="4"/>
+      <c r="K499" s="4"/>
+      <c r="L499" s="4"/>
+      <c r="M499" s="4"/>
+      <c r="N499" s="4"/>
+      <c r="O499" s="4"/>
+      <c r="P499" s="4"/>
+      <c r="Q499" s="4"/>
+      <c r="R499" s="4"/>
+      <c r="S499" s="4"/>
+      <c r="T499" s="4"/>
+      <c r="U499" s="4"/>
+      <c r="V499" s="4"/>
+      <c r="W499" s="4"/>
+      <c r="X499" s="4"/>
+      <c r="Y499" s="4"/>
+      <c r="Z499" s="4"/>
+      <c r="AA499" s="4"/>
+      <c r="AB499" s="4"/>
+      <c r="AC499" s="4"/>
+      <c r="AD499" s="4"/>
+      <c r="AE499" s="4"/>
+      <c r="AF499" s="4"/>
+      <c r="AG499" s="4"/>
+      <c r="AH499" s="4"/>
+      <c r="AI499" s="4"/>
+      <c r="AJ499" s="4"/>
+      <c r="AK499" s="4"/>
+      <c r="AL499" s="4"/>
+      <c r="AM499" s="4"/>
+      <c r="AN499" s="4"/>
+      <c r="AO499" s="4"/>
+      <c r="AP499" s="4"/>
+      <c r="AQ499" s="4"/>
+      <c r="AR499" s="4"/>
+      <c r="AS499" s="4"/>
+      <c r="AT499" s="4"/>
+      <c r="AU499" s="4"/>
+      <c r="AV499" s="4"/>
+      <c r="AW499" s="4"/>
+      <c r="AX499" s="4"/>
+      <c r="AY499" s="4"/>
+      <c r="AZ499" s="4"/>
+      <c r="BA499" s="4"/>
+      <c r="BB499" s="4"/>
+      <c r="BC499" s="4"/>
+      <c r="BD499" s="4"/>
+      <c r="BE499" s="4"/>
+      <c r="BF499" s="4"/>
+      <c r="BG499" s="4"/>
+      <c r="BH499" s="4"/>
+      <c r="BI499" s="4"/>
+      <c r="BJ499" s="4"/>
+      <c r="BK499" s="4"/>
+      <c r="BL499" s="4"/>
+      <c r="BM499" s="4"/>
+      <c r="BN499" s="4"/>
+      <c r="BO499" s="4"/>
+      <c r="BP499" s="4"/>
+      <c r="BQ499" s="4"/>
+      <c r="BR499" s="4"/>
+      <c r="BS499" s="4"/>
+      <c r="BT499" s="4"/>
+      <c r="BU499" s="4"/>
+      <c r="BV499" s="4"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{340CE212-9056-49A1-A643-44B9A2F7CDCA}"/>

--- a/EBAY.xlsx
+++ b/EBAY.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB9B758F-14D5-48F7-8BC5-AA7B554A46F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BE23655-BA7F-49C7-9160-C73D57E43788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" xr2:uid="{ED1C07FE-A50A-4536-AFF7-C55D5EA00969}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{ED1C07FE-A50A-4536-AFF7-C55D5EA00969}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="58">
   <si>
     <t>Ebay</t>
   </si>
@@ -46,9 +46,6 @@
   </si>
   <si>
     <t>EBAY</t>
-  </si>
-  <si>
-    <t>SEC</t>
   </si>
   <si>
     <t>Main</t>
@@ -188,22 +185,56 @@
   <si>
     <t>Advertising Revenue</t>
   </si>
+  <si>
+    <t>IR</t>
+  </si>
+  <si>
+    <t>FY19</t>
+  </si>
+  <si>
+    <t>FY20</t>
+  </si>
+  <si>
+    <t>FY21</t>
+  </si>
+  <si>
+    <t>FY22</t>
+  </si>
+  <si>
+    <t>FY23</t>
+  </si>
+  <si>
+    <t>FY24</t>
+  </si>
+  <si>
+    <t>FY25</t>
+  </si>
+  <si>
+    <t>Active Buyers</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0;\(#,##0\)"/>
     <numFmt numFmtId="165" formatCode="#,##0.00;\(#,##0.00\)"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -260,21 +291,28 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -614,7 +652,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -633,21 +671,21 @@
         <v>1</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H2" s="2">
-        <v>93.14</v>
+        <v>92.17</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H3" s="3">
         <v>457</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -655,63 +693,66 @@
         <v>2</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H4" s="3">
         <f>+H2*H3</f>
-        <v>42564.98</v>
+        <v>42121.69</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B5" s="2" t="s">
-        <v>3</v>
+      <c r="B5" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H5" s="3">
         <f>2070+1680</f>
         <v>3750</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G6" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H6" s="3">
         <f>1746+5002</f>
         <v>6748</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G7" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H7" s="3">
         <f>+H4-H5+H6</f>
-        <v>45562.98</v>
+        <v>45119.69</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B5" r:id="rId1" xr:uid="{69E69191-8FDE-4C54-BC79-F7D09B48F36B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A8A4D81-598D-4355-8C6E-5A128DF97FC3}">
-  <dimension ref="A1:BV499"/>
+  <dimension ref="A1:BV500"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="R3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -723,172 +764,153 @@
   <sheetData>
     <row r="1" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:74" x14ac:dyDescent="0.2">
       <c r="C2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="K2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="N2" s="4" t="s">
-        <v>44</v>
+      <c r="P2" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="R2" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="S2" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="T2" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="U2" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="V2" s="10" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:74" x14ac:dyDescent="0.2">
-      <c r="B3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3">
-        <v>18214</v>
-      </c>
-      <c r="E3" s="3">
-        <v>17991</v>
-      </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3">
-        <v>18623</v>
-      </c>
-      <c r="H3" s="3">
-        <v>18418</v>
-      </c>
-      <c r="I3" s="3">
-        <v>18306</v>
-      </c>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3">
-        <v>18753</v>
-      </c>
-      <c r="L3" s="3">
-        <v>19514</v>
-      </c>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="3"/>
-      <c r="AB3" s="3"/>
-      <c r="AC3" s="3"/>
-      <c r="AD3" s="3"/>
-      <c r="AE3" s="3"/>
-      <c r="AF3" s="3"/>
-      <c r="AG3" s="3"/>
-      <c r="AH3" s="3"/>
-      <c r="AI3" s="3"/>
-      <c r="AJ3" s="3"/>
-      <c r="AK3" s="3"/>
-      <c r="AL3" s="3"/>
-      <c r="AM3" s="3"/>
-      <c r="AN3" s="3"/>
-      <c r="AO3" s="3"/>
-      <c r="AP3" s="3"/>
-      <c r="AQ3" s="3"/>
-      <c r="AR3" s="3"/>
-      <c r="AS3" s="3"/>
-      <c r="AT3" s="3"/>
-      <c r="AU3" s="3"/>
-      <c r="AV3" s="3"/>
-      <c r="AW3" s="3"/>
-      <c r="AX3" s="3"/>
-      <c r="AY3" s="3"/>
-      <c r="AZ3" s="3"/>
-      <c r="BA3" s="3"/>
-      <c r="BB3" s="3"/>
-      <c r="BC3" s="3"/>
-      <c r="BD3" s="3"/>
-      <c r="BE3" s="3"/>
-      <c r="BF3" s="3"/>
-      <c r="BG3" s="3"/>
-      <c r="BH3" s="3"/>
-      <c r="BI3" s="3"/>
-      <c r="BJ3" s="3"/>
-      <c r="BK3" s="3"/>
-      <c r="BL3" s="3"/>
-      <c r="BM3" s="3"/>
-      <c r="BN3" s="3"/>
-      <c r="BO3" s="3"/>
-      <c r="BP3" s="3"/>
-      <c r="BQ3" s="3"/>
-      <c r="BR3" s="3"/>
-      <c r="BS3" s="3"/>
-      <c r="BT3" s="3"/>
-      <c r="BU3" s="3"/>
-      <c r="BV3" s="3"/>
+      <c r="B3" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="4">
+        <v>133</v>
+      </c>
+      <c r="D3" s="4">
+        <v>132</v>
+      </c>
+      <c r="E3" s="4">
+        <v>132</v>
+      </c>
+      <c r="F3" s="4">
+        <v>132</v>
+      </c>
+      <c r="G3" s="4">
+        <v>132</v>
+      </c>
+      <c r="H3" s="4">
+        <v>132</v>
+      </c>
+      <c r="I3" s="4">
+        <v>133</v>
+      </c>
+      <c r="J3" s="4">
+        <v>134</v>
+      </c>
+      <c r="K3" s="4">
+        <v>134</v>
+      </c>
+      <c r="L3" s="4">
+        <v>134</v>
+      </c>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10">
+        <v>134</v>
+      </c>
+      <c r="T3" s="10">
+        <v>132</v>
+      </c>
+      <c r="U3" s="10">
+        <v>134</v>
+      </c>
+      <c r="V3" s="10"/>
     </row>
     <row r="4" spans="1:74" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="6">
-        <f>+D8/D3</f>
-        <v>0.13945316789282969</v>
-      </c>
-      <c r="E4" s="6">
-        <f>+E8/E3</f>
-        <v>0.13895836807292536</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="6">
-        <f>+G8/G3</f>
-        <v>0.13724963754497127</v>
-      </c>
-      <c r="H4" s="6">
-        <f>+H8/H3</f>
-        <v>0.13964599847974807</v>
-      </c>
-      <c r="I4" s="6">
-        <f>+I8/I3</f>
-        <v>0.14071888998142684</v>
-      </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="6">
-        <f>+K8/K3</f>
-        <v>0.13784461152882205</v>
-      </c>
-      <c r="L4" s="6">
-        <f>+L8/L3</f>
-        <v>0.13989955929076561</v>
+        <v>33</v>
+      </c>
+      <c r="C4" s="3">
+        <v>18410</v>
+      </c>
+      <c r="D4" s="3">
+        <v>18214</v>
+      </c>
+      <c r="E4" s="3">
+        <v>17991</v>
+      </c>
+      <c r="F4" s="3">
+        <f>+T4-SUM(C4:E4)</f>
+        <v>18591</v>
+      </c>
+      <c r="G4" s="3">
+        <v>18623</v>
+      </c>
+      <c r="H4" s="3">
+        <v>18418</v>
+      </c>
+      <c r="I4" s="3">
+        <v>18306</v>
+      </c>
+      <c r="J4" s="3">
+        <f>+U4-SUM(G4:I4)</f>
+        <v>19320</v>
+      </c>
+      <c r="K4" s="3">
+        <v>18753</v>
+      </c>
+      <c r="L4" s="3">
+        <v>19514</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -896,9 +918,15 @@
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
+      <c r="S4" s="12">
+        <v>73250</v>
+      </c>
+      <c r="T4" s="3">
+        <v>73206</v>
+      </c>
+      <c r="U4" s="3">
+        <v>74667</v>
+      </c>
       <c r="V4" s="3"/>
       <c r="W4" s="3"/>
       <c r="X4" s="3"/>
@@ -954,25 +982,82 @@
       <c r="BV4" s="3"/>
     </row>
     <row r="5" spans="1:74" x14ac:dyDescent="0.2">
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
+      <c r="B5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="11">
+        <f t="shared" ref="C5" si="0">+C9/C4</f>
+        <v>0.13633894622487777</v>
+      </c>
+      <c r="D5" s="11">
+        <f t="shared" ref="D5" si="1">+D9/D4</f>
+        <v>0.13945316789282969</v>
+      </c>
+      <c r="E5" s="11">
+        <f t="shared" ref="E5" si="2">+E9/E4</f>
+        <v>0.13895836807292536</v>
+      </c>
+      <c r="F5" s="11">
+        <f t="shared" ref="F5" si="3">+F9/F4</f>
+        <v>0.13780861707277714</v>
+      </c>
+      <c r="G5" s="11">
+        <f t="shared" ref="G5" si="4">+G9/G4</f>
+        <v>0.13724963754497127</v>
+      </c>
+      <c r="H5" s="11">
+        <f t="shared" ref="H5" si="5">+H9/H4</f>
+        <v>0.13964599847974807</v>
+      </c>
+      <c r="I5" s="11">
+        <f t="shared" ref="I5" si="6">+I9/I4</f>
+        <v>0.14071888998142684</v>
+      </c>
+      <c r="J5" s="11">
+        <f t="shared" ref="J5" si="7">+J9/J4</f>
+        <v>0.13348861283643892</v>
+      </c>
+      <c r="K5" s="11">
+        <f t="shared" ref="K5" si="8">+K9/K4</f>
+        <v>0.13784461152882205</v>
+      </c>
+      <c r="L5" s="11">
+        <f t="shared" ref="L5" si="9">+L9/L4</f>
+        <v>0.13989955929076561</v>
+      </c>
+      <c r="M5" s="11" t="e">
+        <f t="shared" ref="M5" si="10">+M9/M4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N5" s="11" t="e">
+        <f t="shared" ref="N5" si="11">+N9/N4</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
+      <c r="P5" s="11" t="e">
+        <f t="shared" ref="P5:T5" si="12">+P9/P4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q5" s="11" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R5" s="11" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S5" s="11">
+        <f t="shared" si="12"/>
+        <v>0.13372013651877132</v>
+      </c>
+      <c r="T5" s="11">
+        <f t="shared" si="12"/>
+        <v>0.13813075430975602</v>
+      </c>
+      <c r="U5" s="11">
+        <f>+U9/U4</f>
+        <v>0.13771813518689649</v>
+      </c>
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
       <c r="X5" s="3"/>
@@ -1028,27 +1113,16 @@
       <c r="BV5" s="3"/>
     </row>
     <row r="6" spans="1:74" x14ac:dyDescent="0.2">
-      <c r="B6" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="3">
-        <v>2172</v>
-      </c>
-      <c r="H6" s="3">
-        <v>2174</v>
-      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
-      <c r="K6" s="3">
-        <v>2143</v>
-      </c>
-      <c r="L6" s="3">
-        <v>2248</v>
-      </c>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
@@ -1114,25 +1188,40 @@
     </row>
     <row r="7" spans="1:74" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="C7" s="3">
+        <v>2193</v>
+      </c>
+      <c r="D7" s="3">
+        <v>2173</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2134</v>
+      </c>
+      <c r="F7" s="3">
+        <f>+T7-SUM(C7:E7)</f>
+        <v>2169</v>
+      </c>
       <c r="G7" s="3">
-        <v>384</v>
+        <v>2172</v>
       </c>
       <c r="H7" s="3">
-        <v>398</v>
-      </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
+        <v>2174</v>
+      </c>
+      <c r="I7" s="3">
+        <f>+I9-I8</f>
+        <v>2168</v>
+      </c>
+      <c r="J7" s="3">
+        <f>+U7-SUM(G7:I7)</f>
+        <v>2134</v>
+      </c>
       <c r="K7" s="3">
-        <v>442</v>
+        <v>2143</v>
       </c>
       <c r="L7" s="3">
-        <v>482</v>
+        <v>2248</v>
       </c>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
@@ -1140,9 +1229,15 @@
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
+      <c r="S7" s="3">
+        <v>8644</v>
+      </c>
+      <c r="T7" s="3">
+        <v>8669</v>
+      </c>
+      <c r="U7" s="3">
+        <v>8648</v>
+      </c>
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
       <c r="X7" s="3"/>
@@ -1198,42 +1293,55 @@
       <c r="BV7" s="3"/>
     </row>
     <row r="8" spans="1:74" x14ac:dyDescent="0.2">
-      <c r="B8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7">
-        <v>2540</v>
-      </c>
-      <c r="E8" s="7">
-        <v>2500</v>
-      </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7">
-        <v>2556</v>
-      </c>
-      <c r="H8" s="7">
-        <v>2572</v>
-      </c>
-      <c r="I8" s="7">
-        <v>2576</v>
-      </c>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7">
-        <v>2585</v>
-      </c>
-      <c r="L8" s="7">
-        <v>2730</v>
-      </c>
-      <c r="M8" s="7"/>
+      <c r="B8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="3">
+        <v>317</v>
+      </c>
+      <c r="D8" s="3">
+        <v>367</v>
+      </c>
+      <c r="E8" s="3">
+        <v>366</v>
+      </c>
+      <c r="F8" s="3">
+        <v>393</v>
+      </c>
+      <c r="G8" s="3">
+        <v>384</v>
+      </c>
+      <c r="H8" s="3">
+        <v>398</v>
+      </c>
+      <c r="I8" s="3">
+        <v>408</v>
+      </c>
+      <c r="J8" s="3">
+        <f>+U8-SUM(G8:I8)</f>
+        <v>445</v>
+      </c>
+      <c r="K8" s="3">
+        <v>442</v>
+      </c>
+      <c r="L8" s="3">
+        <v>482</v>
+      </c>
+      <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
+      <c r="S8" s="3">
+        <v>1151</v>
+      </c>
+      <c r="T8" s="3">
+        <v>1443</v>
+      </c>
+      <c r="U8" s="3">
+        <v>1635</v>
+      </c>
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
       <c r="X8" s="3"/>
@@ -1289,42 +1397,56 @@
       <c r="BV8" s="3"/>
     </row>
     <row r="9" spans="1:74" x14ac:dyDescent="0.2">
-      <c r="B9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3">
-        <v>718</v>
-      </c>
-      <c r="E9" s="3">
-        <v>705</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3">
-        <v>700</v>
-      </c>
-      <c r="H9" s="3">
-        <v>735</v>
-      </c>
-      <c r="I9" s="3">
-        <v>727</v>
-      </c>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3">
-        <v>723</v>
-      </c>
-      <c r="L9" s="3">
-        <v>776</v>
-      </c>
-      <c r="M9" s="3"/>
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="7">
+        <v>2510</v>
+      </c>
+      <c r="D9" s="7">
+        <v>2540</v>
+      </c>
+      <c r="E9" s="7">
+        <v>2500</v>
+      </c>
+      <c r="F9" s="7">
+        <f>+T9-SUM(C9:E9)</f>
+        <v>2562</v>
+      </c>
+      <c r="G9" s="7">
+        <v>2556</v>
+      </c>
+      <c r="H9" s="7">
+        <v>2572</v>
+      </c>
+      <c r="I9" s="7">
+        <v>2576</v>
+      </c>
+      <c r="J9" s="7">
+        <f>+U9-SUM(G9:I9)</f>
+        <v>2579</v>
+      </c>
+      <c r="K9" s="7">
+        <v>2585</v>
+      </c>
+      <c r="L9" s="7">
+        <v>2730</v>
+      </c>
+      <c r="M9" s="7"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
+      <c r="S9" s="7">
+        <v>9795</v>
+      </c>
+      <c r="T9" s="7">
+        <v>10112</v>
+      </c>
+      <c r="U9" s="7">
+        <v>10283</v>
+      </c>
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
       <c r="X9" s="3"/>
@@ -1381,63 +1503,55 @@
     </row>
     <row r="10" spans="1:74" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C10" s="3">
-        <f t="shared" ref="C10:G10" si="0">+C8-C9</f>
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="D10" s="3">
-        <f t="shared" si="0"/>
-        <v>1822</v>
+        <v>718</v>
       </c>
       <c r="E10" s="3">
-        <f t="shared" si="0"/>
-        <v>1795</v>
+        <v>705</v>
       </c>
       <c r="F10" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>+T10-SUM(C10:E10)</f>
+        <v>710</v>
       </c>
       <c r="G10" s="3">
-        <f t="shared" si="0"/>
-        <v>1856</v>
+        <v>700</v>
       </c>
       <c r="H10" s="3">
-        <f>+H8-H9</f>
-        <v>1837</v>
+        <v>735</v>
       </c>
       <c r="I10" s="3">
-        <f t="shared" ref="I10:N10" si="1">+I8-I9</f>
-        <v>1849</v>
+        <v>727</v>
       </c>
       <c r="J10" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>+U10-SUM(G10:I10)</f>
+        <v>718</v>
       </c>
       <c r="K10" s="3">
-        <f t="shared" si="1"/>
-        <v>1862</v>
+        <v>723</v>
       </c>
       <c r="L10" s="3">
-        <f t="shared" si="1"/>
-        <v>1954</v>
-      </c>
-      <c r="M10" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N10" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+        <v>776</v>
+      </c>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
+      <c r="S10" s="3">
+        <v>2680</v>
+      </c>
+      <c r="T10" s="3">
+        <v>2833</v>
+      </c>
+      <c r="U10" s="3">
+        <v>2880</v>
+      </c>
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
@@ -1494,41 +1608,81 @@
     </row>
     <row r="11" spans="1:74" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="3"/>
+        <v>21</v>
+      </c>
+      <c r="C11" s="3">
+        <f t="shared" ref="C11:G11" si="13">+C9-C10</f>
+        <v>1810</v>
+      </c>
       <c r="D11" s="3">
-        <v>566</v>
+        <f t="shared" si="13"/>
+        <v>1822</v>
       </c>
       <c r="E11" s="3">
-        <v>567</v>
-      </c>
-      <c r="F11" s="3"/>
+        <f t="shared" si="13"/>
+        <v>1795</v>
+      </c>
+      <c r="F11" s="3">
+        <f t="shared" si="13"/>
+        <v>1852</v>
+      </c>
       <c r="G11" s="3">
-        <v>541</v>
+        <f t="shared" si="13"/>
+        <v>1856</v>
       </c>
       <c r="H11" s="3">
-        <v>577</v>
+        <f>+H9-H10</f>
+        <v>1837</v>
       </c>
       <c r="I11" s="3">
-        <v>592</v>
-      </c>
-      <c r="J11" s="3"/>
+        <f t="shared" ref="I11:U11" si="14">+I9-I10</f>
+        <v>1849</v>
+      </c>
+      <c r="J11" s="3">
+        <f t="shared" si="14"/>
+        <v>1861</v>
+      </c>
       <c r="K11" s="3">
-        <v>536</v>
+        <f t="shared" si="14"/>
+        <v>1862</v>
       </c>
       <c r="L11" s="3">
-        <v>586</v>
-      </c>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
+        <f t="shared" si="14"/>
+        <v>1954</v>
+      </c>
+      <c r="M11" s="3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="N11" s="3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
+      <c r="P11" s="3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R11" s="3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="S11" s="3">
+        <f t="shared" si="14"/>
+        <v>7115</v>
+      </c>
+      <c r="T11" s="3">
+        <f t="shared" si="14"/>
+        <v>7279</v>
+      </c>
+      <c r="U11" s="3">
+        <f t="shared" si="14"/>
+        <v>7403</v>
+      </c>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
@@ -1585,31 +1739,39 @@
     </row>
     <row r="12" spans="1:74" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="C12" s="3">
+        <v>511</v>
+      </c>
       <c r="D12" s="3">
-        <v>392</v>
+        <v>566</v>
       </c>
       <c r="E12" s="3">
-        <v>401</v>
-      </c>
-      <c r="F12" s="3"/>
+        <v>567</v>
+      </c>
+      <c r="F12" s="3">
+        <f>+T12-SUM(C12:E12)</f>
+        <v>573</v>
+      </c>
       <c r="G12" s="3">
-        <v>351</v>
+        <v>541</v>
       </c>
       <c r="H12" s="3">
-        <v>379</v>
+        <v>577</v>
       </c>
       <c r="I12" s="3">
-        <v>374</v>
-      </c>
-      <c r="J12" s="3"/>
+        <v>592</v>
+      </c>
+      <c r="J12" s="3">
+        <f>+U12-SUM(G12:I12)</f>
+        <v>609</v>
+      </c>
       <c r="K12" s="3">
-        <v>362</v>
+        <v>536</v>
       </c>
       <c r="L12" s="3">
-        <v>421</v>
+        <v>586</v>
       </c>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
@@ -1617,9 +1779,15 @@
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
+      <c r="S12" s="3">
+        <v>2136</v>
+      </c>
+      <c r="T12" s="3">
+        <v>2217</v>
+      </c>
+      <c r="U12" s="3">
+        <v>2319</v>
+      </c>
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
@@ -1678,29 +1846,37 @@
       <c r="B13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="3"/>
+      <c r="C13" s="3">
+        <v>352</v>
+      </c>
       <c r="D13" s="3">
-        <v>251</v>
+        <v>392</v>
       </c>
       <c r="E13" s="3">
-        <v>283</v>
-      </c>
-      <c r="F13" s="3"/>
+        <v>401</v>
+      </c>
+      <c r="F13" s="3">
+        <f>+T13-SUM(C13:E13)</f>
+        <v>399</v>
+      </c>
       <c r="G13" s="3">
-        <v>238</v>
+        <v>351</v>
       </c>
       <c r="H13" s="3">
-        <v>241</v>
+        <v>379</v>
       </c>
       <c r="I13" s="3">
-        <v>194</v>
-      </c>
-      <c r="J13" s="3"/>
+        <v>374</v>
+      </c>
+      <c r="J13" s="3">
+        <f>+U13-SUM(G13:I13)</f>
+        <v>375</v>
+      </c>
       <c r="K13" s="3">
-        <v>261</v>
+        <v>362</v>
       </c>
       <c r="L13" s="3">
-        <v>371</v>
+        <v>421</v>
       </c>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
@@ -1708,9 +1884,15 @@
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
+      <c r="S13" s="3">
+        <v>1330</v>
+      </c>
+      <c r="T13" s="3">
+        <v>1544</v>
+      </c>
+      <c r="U13" s="3">
+        <v>1479</v>
+      </c>
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
@@ -1767,31 +1949,39 @@
     </row>
     <row r="14" spans="1:74" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="3"/>
+        <v>23</v>
+      </c>
+      <c r="C14" s="3">
+        <v>297</v>
+      </c>
       <c r="D14" s="3">
-        <v>90</v>
+        <v>251</v>
       </c>
       <c r="E14" s="3">
-        <v>85</v>
-      </c>
-      <c r="F14" s="3"/>
+        <v>283</v>
+      </c>
+      <c r="F14" s="3">
+        <f>+T14-SUM(C14:E14)</f>
+        <v>365</v>
+      </c>
       <c r="G14" s="3">
-        <v>91</v>
+        <v>238</v>
       </c>
       <c r="H14" s="3">
-        <v>86</v>
+        <v>241</v>
       </c>
       <c r="I14" s="3">
-        <v>89</v>
-      </c>
-      <c r="J14" s="3"/>
+        <v>194</v>
+      </c>
+      <c r="J14" s="3">
+        <f>+U14-SUM(G14:I14)</f>
+        <v>241</v>
+      </c>
       <c r="K14" s="3">
-        <v>81</v>
+        <v>261</v>
       </c>
       <c r="L14" s="3">
-        <v>86</v>
+        <v>371</v>
       </c>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
@@ -1799,9 +1989,15 @@
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
+      <c r="S14" s="3">
+        <v>963</v>
+      </c>
+      <c r="T14" s="3">
+        <v>1196</v>
+      </c>
+      <c r="U14" s="3">
+        <v>914</v>
+      </c>
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
@@ -1858,31 +2054,39 @@
     </row>
     <row r="15" spans="1:74" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="3"/>
+        <v>44</v>
+      </c>
+      <c r="C15" s="3">
+        <v>84</v>
+      </c>
       <c r="D15" s="3">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="E15" s="3">
-        <v>4</v>
-      </c>
-      <c r="F15" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="F15" s="3">
+        <f>+T15-SUM(C15:E15)</f>
+        <v>101</v>
+      </c>
       <c r="G15" s="3">
-        <v>4</v>
+        <v>91</v>
       </c>
       <c r="H15" s="3">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="I15" s="3">
-        <v>5</v>
-      </c>
-      <c r="J15" s="3"/>
+        <v>89</v>
+      </c>
+      <c r="J15" s="3">
+        <f>+U15-SUM(G15:I15)</f>
+        <v>87</v>
+      </c>
       <c r="K15" s="3">
-        <v>6</v>
+        <v>81</v>
       </c>
       <c r="L15" s="3">
-        <v>6</v>
+        <v>86</v>
       </c>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
@@ -1890,9 +2094,15 @@
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
+      <c r="S15" s="3">
+        <v>332</v>
+      </c>
+      <c r="T15" s="3">
+        <v>360</v>
+      </c>
+      <c r="U15" s="3">
+        <v>353</v>
+      </c>
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
       <c r="X15" s="3"/>
@@ -1949,63 +2159,55 @@
     </row>
     <row r="16" spans="1:74" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="C16" s="3">
-        <f t="shared" ref="C16:G16" si="2">+C10-SUM(C11:C15)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D16" s="3">
-        <f t="shared" si="2"/>
-        <v>518</v>
+        <v>5</v>
       </c>
       <c r="E16" s="3">
-        <f t="shared" si="2"/>
-        <v>455</v>
+        <v>4</v>
       </c>
       <c r="F16" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>+T16-SUM(C16:E16)</f>
+        <v>4</v>
       </c>
       <c r="G16" s="3">
-        <f t="shared" si="2"/>
-        <v>631</v>
+        <v>4</v>
       </c>
       <c r="H16" s="3">
-        <f>+H10-SUM(H11:H15)</f>
-        <v>549</v>
+        <v>5</v>
       </c>
       <c r="I16" s="3">
-        <f t="shared" ref="I16:N16" si="3">+I10-SUM(I11:I15)</f>
-        <v>595</v>
+        <v>5</v>
       </c>
       <c r="J16" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>+U16-SUM(G16:I16)</f>
+        <v>6</v>
       </c>
       <c r="K16" s="3">
-        <f t="shared" si="3"/>
-        <v>616</v>
+        <v>6</v>
       </c>
       <c r="L16" s="3">
-        <f t="shared" si="3"/>
-        <v>484</v>
-      </c>
-      <c r="M16" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N16" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
+      <c r="S16" s="3">
+        <v>4</v>
+      </c>
+      <c r="T16" s="3">
+        <v>21</v>
+      </c>
+      <c r="U16" s="3">
+        <v>20</v>
+      </c>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
@@ -2062,41 +2264,81 @@
     </row>
     <row r="17" spans="2:74" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="C17" s="3">
+        <f t="shared" ref="C17:G17" si="15">+C11-SUM(C12:C16)</f>
+        <v>558</v>
+      </c>
       <c r="D17" s="3">
-        <v>-214</v>
+        <f t="shared" si="15"/>
+        <v>518</v>
       </c>
       <c r="E17" s="3">
-        <v>1212</v>
-      </c>
-      <c r="F17" s="3"/>
+        <f t="shared" si="15"/>
+        <v>455</v>
+      </c>
+      <c r="F17" s="3">
+        <f t="shared" si="15"/>
+        <v>410</v>
+      </c>
       <c r="G17" s="3">
-        <v>-97</v>
+        <f t="shared" si="15"/>
+        <v>631</v>
       </c>
       <c r="H17" s="3">
-        <v>-222</v>
+        <f>+H11-SUM(H12:H16)</f>
+        <v>549</v>
       </c>
       <c r="I17" s="3">
-        <v>199</v>
-      </c>
-      <c r="J17" s="3"/>
+        <f t="shared" ref="I17:U17" si="16">+I11-SUM(I12:I16)</f>
+        <v>595</v>
+      </c>
+      <c r="J17" s="3">
+        <f t="shared" si="16"/>
+        <v>543</v>
+      </c>
       <c r="K17" s="3">
-        <v>-2</v>
+        <f t="shared" si="16"/>
+        <v>616</v>
       </c>
       <c r="L17" s="3">
-        <v>-4</v>
-      </c>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
+        <f t="shared" si="16"/>
+        <v>484</v>
+      </c>
+      <c r="M17" s="3">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="N17" s="3">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
       <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
+      <c r="P17" s="3">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="R17" s="3">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S17" s="3">
+        <f t="shared" si="16"/>
+        <v>2350</v>
+      </c>
+      <c r="T17" s="3">
+        <f t="shared" si="16"/>
+        <v>1941</v>
+      </c>
+      <c r="U17" s="3">
+        <f t="shared" si="16"/>
+        <v>2318</v>
+      </c>
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
@@ -2153,31 +2395,39 @@
     </row>
     <row r="18" spans="2:74" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="3"/>
+        <v>46</v>
+      </c>
+      <c r="C18" s="3">
+        <v>198</v>
+      </c>
       <c r="D18" s="3">
-        <v>65</v>
+        <v>-214</v>
       </c>
       <c r="E18" s="3">
-        <v>65</v>
-      </c>
-      <c r="F18" s="3"/>
+        <v>1212</v>
+      </c>
+      <c r="F18" s="3">
+        <f>+T18-SUM(C18:E18)</f>
+        <v>636</v>
+      </c>
       <c r="G18" s="3">
-        <v>66</v>
+        <v>-97</v>
       </c>
       <c r="H18" s="3">
-        <v>65</v>
+        <v>-222</v>
       </c>
       <c r="I18" s="3">
-        <v>63</v>
-      </c>
-      <c r="J18" s="3"/>
+        <v>199</v>
+      </c>
+      <c r="J18" s="3">
+        <f>+U18-SUM(G18:I18)</f>
+        <v>44</v>
+      </c>
       <c r="K18" s="3">
-        <v>61</v>
+        <v>-2</v>
       </c>
       <c r="L18" s="3">
-        <v>62</v>
+        <v>-4</v>
       </c>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
@@ -2185,9 +2435,15 @@
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
       <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
+      <c r="S18" s="3">
+        <v>-3786</v>
+      </c>
+      <c r="T18" s="3">
+        <v>1832</v>
+      </c>
+      <c r="U18" s="3">
+        <v>-76</v>
+      </c>
       <c r="V18" s="3"/>
       <c r="W18" s="3"/>
       <c r="X18" s="3"/>
@@ -2244,31 +2500,39 @@
     </row>
     <row r="19" spans="2:74" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="C19" s="3">
+        <v>68</v>
+      </c>
       <c r="D19" s="3">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="E19" s="3">
-        <v>59</v>
-      </c>
-      <c r="F19" s="3"/>
+        <v>65</v>
+      </c>
+      <c r="F19" s="3">
+        <f>+T19-SUM(C19:E19)</f>
+        <v>65</v>
+      </c>
       <c r="G19" s="3">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H19" s="3">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I19" s="3">
-        <v>66</v>
-      </c>
-      <c r="J19" s="3"/>
+        <v>63</v>
+      </c>
+      <c r="J19" s="3">
+        <f>+U19-SUM(G19:I19)</f>
+        <v>65</v>
+      </c>
       <c r="K19" s="3">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="L19" s="3">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
@@ -2276,9 +2540,15 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
+      <c r="S19" s="3">
+        <v>235</v>
+      </c>
+      <c r="T19" s="3">
+        <v>263</v>
+      </c>
+      <c r="U19" s="3">
+        <v>259</v>
+      </c>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
@@ -2335,63 +2605,55 @@
     </row>
     <row r="20" spans="2:74" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C20" s="3">
-        <f t="shared" ref="C20:G20" si="4">+C16+C17-C18+C19</f>
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="D20" s="3">
-        <f t="shared" si="4"/>
-        <v>285</v>
+        <v>46</v>
       </c>
       <c r="E20" s="3">
-        <f t="shared" si="4"/>
-        <v>1661</v>
+        <v>59</v>
       </c>
       <c r="F20" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>+T20-SUM(C20:E20)</f>
+        <v>50</v>
       </c>
       <c r="G20" s="3">
-        <f t="shared" si="4"/>
-        <v>536</v>
+        <v>68</v>
       </c>
       <c r="H20" s="3">
-        <f>+H16+H17-H18+H19</f>
-        <v>328</v>
+        <v>66</v>
       </c>
       <c r="I20" s="3">
-        <f t="shared" ref="I20:N20" si="5">+I16+I17-I18+I19</f>
-        <v>797</v>
+        <v>66</v>
       </c>
       <c r="J20" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f>+U20-SUM(G20:I20)</f>
+        <v>95</v>
       </c>
       <c r="K20" s="3">
-        <f t="shared" si="5"/>
-        <v>634</v>
+        <v>81</v>
       </c>
       <c r="L20" s="3">
-        <f t="shared" si="5"/>
-        <v>477</v>
-      </c>
-      <c r="M20" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N20" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
       <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
-      <c r="U20" s="3"/>
+      <c r="S20" s="3">
+        <v>70</v>
+      </c>
+      <c r="T20" s="3">
+        <v>197</v>
+      </c>
+      <c r="U20" s="3">
+        <v>295</v>
+      </c>
       <c r="V20" s="3"/>
       <c r="W20" s="3"/>
       <c r="X20" s="3"/>
@@ -2448,41 +2710,81 @@
     </row>
     <row r="21" spans="2:74" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="C21" s="3">
+        <f t="shared" ref="C21:G21" si="17">+C17+C18-C19+C20</f>
+        <v>730</v>
+      </c>
       <c r="D21" s="3">
-        <v>113</v>
+        <f t="shared" si="17"/>
+        <v>285</v>
       </c>
       <c r="E21" s="3">
-        <v>355</v>
-      </c>
-      <c r="F21" s="3"/>
+        <f t="shared" si="17"/>
+        <v>1661</v>
+      </c>
+      <c r="F21" s="3">
+        <f t="shared" si="17"/>
+        <v>1031</v>
+      </c>
       <c r="G21" s="3">
-        <v>97</v>
+        <f t="shared" si="17"/>
+        <v>536</v>
       </c>
       <c r="H21" s="3">
-        <v>102</v>
+        <f>+H17+H18-H19+H20</f>
+        <v>328</v>
       </c>
       <c r="I21" s="3">
-        <v>161</v>
-      </c>
-      <c r="J21" s="3"/>
+        <f t="shared" ref="I21:U21" si="18">+I17+I18-I19+I20</f>
+        <v>797</v>
+      </c>
+      <c r="J21" s="3">
+        <f t="shared" si="18"/>
+        <v>617</v>
+      </c>
       <c r="K21" s="3">
-        <v>129</v>
+        <f t="shared" si="18"/>
+        <v>634</v>
       </c>
       <c r="L21" s="3">
-        <v>108</v>
-      </c>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
+        <f t="shared" si="18"/>
+        <v>477</v>
+      </c>
+      <c r="M21" s="3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
       <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
-      <c r="U21" s="3"/>
+      <c r="P21" s="3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R21" s="3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="S21" s="3">
+        <f t="shared" si="18"/>
+        <v>-1601</v>
+      </c>
+      <c r="T21" s="3">
+        <f t="shared" si="18"/>
+        <v>3707</v>
+      </c>
+      <c r="U21" s="3">
+        <f t="shared" si="18"/>
+        <v>2278</v>
+      </c>
       <c r="V21" s="3"/>
       <c r="W21" s="3"/>
       <c r="X21" s="3"/>
@@ -2539,63 +2841,55 @@
     </row>
     <row r="22" spans="2:74" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C22" s="3">
-        <f t="shared" ref="C22:G22" si="6">+C20-C21</f>
-        <v>0</v>
+        <v>161</v>
       </c>
       <c r="D22" s="3">
-        <f t="shared" si="6"/>
-        <v>172</v>
+        <v>113</v>
       </c>
       <c r="E22" s="3">
-        <f t="shared" si="6"/>
-        <v>1306</v>
+        <v>355</v>
       </c>
       <c r="F22" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f>+T22-SUM(C22:E22)</f>
+        <v>303</v>
       </c>
       <c r="G22" s="3">
-        <f t="shared" si="6"/>
-        <v>439</v>
+        <v>97</v>
       </c>
       <c r="H22" s="3">
-        <f>+H20-H21</f>
-        <v>226</v>
+        <v>102</v>
       </c>
       <c r="I22" s="3">
-        <f t="shared" ref="I22:N22" si="7">+I20-I21</f>
-        <v>636</v>
+        <v>161</v>
       </c>
       <c r="J22" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f>+U22-SUM(G22:I22)</f>
+        <v>-63</v>
       </c>
       <c r="K22" s="3">
-        <f t="shared" si="7"/>
-        <v>505</v>
+        <v>129</v>
       </c>
       <c r="L22" s="3">
-        <f t="shared" si="7"/>
-        <v>369</v>
-      </c>
-      <c r="M22" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N22" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
       <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
-      <c r="U22" s="3"/>
+      <c r="S22" s="3">
+        <v>-327</v>
+      </c>
+      <c r="T22" s="3">
+        <v>932</v>
+      </c>
+      <c r="U22" s="3">
+        <v>297</v>
+      </c>
       <c r="V22" s="3"/>
       <c r="W22" s="3"/>
       <c r="X22" s="3"/>
@@ -2654,39 +2948,76 @@
       <c r="B23" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="3"/>
+      <c r="C23" s="3">
+        <f t="shared" ref="C23:G23" si="19">+C21-C22</f>
+        <v>569</v>
+      </c>
       <c r="D23" s="3">
-        <v>-1</v>
+        <f t="shared" si="19"/>
+        <v>172</v>
       </c>
       <c r="E23" s="3">
-        <v>-1</v>
-      </c>
-      <c r="F23" s="3"/>
+        <f t="shared" si="19"/>
+        <v>1306</v>
+      </c>
+      <c r="F23" s="3">
+        <f t="shared" si="19"/>
+        <v>728</v>
+      </c>
       <c r="G23" s="3">
-        <v>-1</v>
+        <f t="shared" si="19"/>
+        <v>439</v>
       </c>
       <c r="H23" s="3">
-        <v>-2</v>
+        <f>+H21-H22</f>
+        <v>226</v>
       </c>
       <c r="I23" s="3">
-        <v>-2</v>
-      </c>
-      <c r="J23" s="3"/>
+        <f t="shared" ref="I23:N23" si="20">+I21-I22</f>
+        <v>636</v>
+      </c>
+      <c r="J23" s="3">
+        <f t="shared" si="20"/>
+        <v>680</v>
+      </c>
       <c r="K23" s="3">
-        <v>-2</v>
+        <f t="shared" si="20"/>
+        <v>505</v>
       </c>
       <c r="L23" s="3">
-        <v>-1</v>
-      </c>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
+        <f t="shared" si="20"/>
+        <v>369</v>
+      </c>
+      <c r="M23" s="3">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
-      <c r="S23" s="3"/>
-      <c r="T23" s="3"/>
-      <c r="U23" s="3"/>
+      <c r="Q23" s="3">
+        <f t="shared" ref="Q23:T23" si="21">+Q21-Q22</f>
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
+        <f t="shared" si="21"/>
+        <v>-1274</v>
+      </c>
+      <c r="T23" s="3">
+        <f t="shared" si="21"/>
+        <v>2775</v>
+      </c>
+      <c r="U23" s="3">
+        <f>+U21-U22</f>
+        <v>1981</v>
+      </c>
       <c r="V23" s="3"/>
       <c r="W23" s="3"/>
       <c r="X23" s="3"/>
@@ -2746,60 +3077,52 @@
         <v>31</v>
       </c>
       <c r="C24" s="3">
-        <f t="shared" ref="C24:G24" si="8">+C22+C23</f>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D24" s="3">
-        <f t="shared" si="8"/>
-        <v>171</v>
+        <v>-1</v>
       </c>
       <c r="E24" s="3">
-        <f t="shared" si="8"/>
-        <v>1305</v>
+        <v>-1</v>
       </c>
       <c r="F24" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f>+T24-SUM(C24:E24)</f>
+        <v>-4</v>
       </c>
       <c r="G24" s="3">
-        <f t="shared" si="8"/>
-        <v>438</v>
+        <v>-1</v>
       </c>
       <c r="H24" s="3">
-        <f>+H22+H23</f>
-        <v>224</v>
+        <v>-2</v>
       </c>
       <c r="I24" s="3">
-        <f t="shared" ref="I24:N24" si="9">+I22+I23</f>
-        <v>634</v>
+        <v>-2</v>
       </c>
       <c r="J24" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f>+U24-SUM(G24:I24)</f>
+        <v>-1</v>
       </c>
       <c r="K24" s="3">
-        <f t="shared" si="9"/>
-        <v>503</v>
+        <v>-2</v>
       </c>
       <c r="L24" s="3">
-        <f t="shared" si="9"/>
-        <v>368</v>
-      </c>
-      <c r="M24" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="N24" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
+        <v>-1</v>
+      </c>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
       <c r="R24" s="3"/>
-      <c r="S24" s="3"/>
-      <c r="T24" s="3"/>
-      <c r="U24" s="3"/>
+      <c r="S24" s="3">
+        <v>5</v>
+      </c>
+      <c r="T24" s="3">
+        <v>-8</v>
+      </c>
+      <c r="U24" s="3">
+        <v>-6</v>
+      </c>
       <c r="V24" s="3"/>
       <c r="W24" s="3"/>
       <c r="X24" s="3"/>
@@ -2855,25 +3178,79 @@
       <c r="BV24" s="3"/>
     </row>
     <row r="25" spans="2:74" x14ac:dyDescent="0.2">
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
+      <c r="B25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="3">
+        <f t="shared" ref="C25:G25" si="22">+C23+C24</f>
+        <v>567</v>
+      </c>
+      <c r="D25" s="3">
+        <f t="shared" si="22"/>
+        <v>171</v>
+      </c>
+      <c r="E25" s="3">
+        <f t="shared" si="22"/>
+        <v>1305</v>
+      </c>
+      <c r="F25" s="3">
+        <f t="shared" si="22"/>
+        <v>724</v>
+      </c>
+      <c r="G25" s="3">
+        <f t="shared" si="22"/>
+        <v>438</v>
+      </c>
+      <c r="H25" s="3">
+        <f>+H23+H24</f>
+        <v>224</v>
+      </c>
+      <c r="I25" s="3">
+        <f t="shared" ref="I25:N25" si="23">+I23+I24</f>
+        <v>634</v>
+      </c>
+      <c r="J25" s="3">
+        <f t="shared" si="23"/>
+        <v>679</v>
+      </c>
+      <c r="K25" s="3">
+        <f t="shared" si="23"/>
+        <v>503</v>
+      </c>
+      <c r="L25" s="3">
+        <f t="shared" si="23"/>
+        <v>368</v>
+      </c>
+      <c r="M25" s="3">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
-      <c r="S25" s="3"/>
-      <c r="T25" s="3"/>
-      <c r="U25" s="3"/>
+      <c r="Q25" s="3">
+        <f t="shared" ref="Q25:T25" si="24">+Q23+Q24</f>
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <f t="shared" si="24"/>
+        <v>-1269</v>
+      </c>
+      <c r="T25" s="3">
+        <f t="shared" si="24"/>
+        <v>2767</v>
+      </c>
+      <c r="U25" s="3">
+        <f>+U23+U24</f>
+        <v>1975</v>
+      </c>
       <c r="V25" s="3"/>
       <c r="W25" s="3"/>
       <c r="X25" s="3"/>
@@ -2929,57 +3306,18 @@
       <c r="BV25" s="3"/>
     </row>
     <row r="26" spans="2:74" x14ac:dyDescent="0.2">
-      <c r="B26" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" s="8" t="e">
-        <f t="shared" ref="C26:J26" si="10">+C24/C27</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D26" s="8">
-        <f t="shared" si="10"/>
-        <v>0.3202247191011236</v>
-      </c>
-      <c r="E26" s="8">
-        <f t="shared" si="10"/>
-        <v>2.4669187145557654</v>
-      </c>
-      <c r="F26" s="8" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G26" s="8">
-        <f t="shared" si="10"/>
-        <v>0.84883720930232553</v>
-      </c>
-      <c r="H26" s="8">
-        <f t="shared" si="10"/>
-        <v>0.44532803180914515</v>
-      </c>
-      <c r="I26" s="8">
-        <f t="shared" si="10"/>
-        <v>1.3018480492813143</v>
-      </c>
-      <c r="J26" s="8" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K26" s="8">
-        <f t="shared" ref="K26:N26" si="11">+K24/K27</f>
-        <v>1.0770877944325481</v>
-      </c>
-      <c r="L26" s="8">
-        <f t="shared" si="11"/>
-        <v>0.79826464208242953</v>
-      </c>
-      <c r="M26" s="8" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N26" s="8" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
@@ -3043,41 +3381,78 @@
     </row>
     <row r="27" spans="2:74" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3">
-        <v>534</v>
-      </c>
-      <c r="E27" s="3">
-        <v>529</v>
-      </c>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3">
-        <v>516</v>
-      </c>
-      <c r="H27" s="3">
-        <v>503</v>
-      </c>
-      <c r="I27" s="3">
-        <v>487</v>
-      </c>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3">
-        <v>467</v>
-      </c>
-      <c r="L27" s="3">
-        <v>461</v>
-      </c>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
+        <v>19</v>
+      </c>
+      <c r="C27" s="8">
+        <f t="shared" ref="C27:J27" si="25">+C25/C28</f>
+        <v>1.0558659217877095</v>
+      </c>
+      <c r="D27" s="8">
+        <f t="shared" si="25"/>
+        <v>0.3202247191011236</v>
+      </c>
+      <c r="E27" s="8">
+        <f t="shared" si="25"/>
+        <v>2.4669187145557654</v>
+      </c>
+      <c r="F27" s="8">
+        <f t="shared" si="25"/>
+        <v>1.3660377358490565</v>
+      </c>
+      <c r="G27" s="8">
+        <f t="shared" si="25"/>
+        <v>0.84883720930232553</v>
+      </c>
+      <c r="H27" s="8">
+        <f t="shared" si="25"/>
+        <v>0.44532803180914515</v>
+      </c>
+      <c r="I27" s="8">
+        <f t="shared" si="25"/>
+        <v>1.3018480492813143</v>
+      </c>
+      <c r="J27" s="8">
+        <f t="shared" si="25"/>
+        <v>1.3689516129032258</v>
+      </c>
+      <c r="K27" s="8">
+        <f t="shared" ref="K27:N27" si="26">+K25/K28</f>
+        <v>1.0770877944325481</v>
+      </c>
+      <c r="L27" s="8">
+        <f t="shared" si="26"/>
+        <v>0.79826464208242953</v>
+      </c>
+      <c r="M27" s="8" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N27" s="8" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="3"/>
-      <c r="S27" s="3"/>
-      <c r="T27" s="3"/>
-      <c r="U27" s="3"/>
+      <c r="Q27" s="8" t="e">
+        <f t="shared" ref="Q27:U27" si="27">+Q25/Q28</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R27" s="8" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S27" s="8">
+        <f t="shared" si="27"/>
+        <v>-2.274193548387097</v>
+      </c>
+      <c r="T27" s="8">
+        <f t="shared" si="27"/>
+        <v>5.2207547169811317</v>
+      </c>
+      <c r="U27" s="8">
+        <f t="shared" si="27"/>
+        <v>3.9818548387096775</v>
+      </c>
       <c r="V27" s="3"/>
       <c r="W27" s="3"/>
       <c r="X27" s="3"/>
@@ -3132,93 +3507,118 @@
       <c r="BU27" s="3"/>
       <c r="BV27" s="3"/>
     </row>
-    <row r="29" spans="2:74" x14ac:dyDescent="0.2">
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="3"/>
-      <c r="S29" s="3"/>
-      <c r="T29" s="3"/>
-      <c r="U29" s="3"/>
-      <c r="V29" s="3"/>
-      <c r="W29" s="3"/>
-      <c r="X29" s="3"/>
-      <c r="Y29" s="3"/>
-      <c r="Z29" s="3"/>
-      <c r="AA29" s="3"/>
-      <c r="AB29" s="3"/>
-      <c r="AC29" s="3"/>
-      <c r="AD29" s="3"/>
-      <c r="AE29" s="3"/>
-      <c r="AF29" s="3"/>
-      <c r="AG29" s="3"/>
-      <c r="AH29" s="3"/>
-      <c r="AI29" s="3"/>
-      <c r="AJ29" s="3"/>
-      <c r="AK29" s="3"/>
-      <c r="AL29" s="3"/>
-      <c r="AM29" s="3"/>
-      <c r="AN29" s="3"/>
-      <c r="AO29" s="3"/>
-      <c r="AP29" s="3"/>
-      <c r="AQ29" s="3"/>
-      <c r="AR29" s="3"/>
-      <c r="AS29" s="3"/>
-      <c r="AT29" s="3"/>
-      <c r="AU29" s="3"/>
-      <c r="AV29" s="3"/>
-      <c r="AW29" s="3"/>
-      <c r="AX29" s="3"/>
-      <c r="AY29" s="3"/>
-      <c r="AZ29" s="3"/>
-      <c r="BA29" s="3"/>
-      <c r="BB29" s="3"/>
-      <c r="BC29" s="3"/>
-      <c r="BD29" s="3"/>
-      <c r="BE29" s="3"/>
-      <c r="BF29" s="3"/>
-      <c r="BG29" s="3"/>
-      <c r="BH29" s="3"/>
-      <c r="BI29" s="3"/>
-      <c r="BJ29" s="3"/>
-      <c r="BK29" s="3"/>
-      <c r="BL29" s="3"/>
-      <c r="BM29" s="3"/>
-      <c r="BN29" s="3"/>
-      <c r="BO29" s="3"/>
-      <c r="BP29" s="3"/>
-      <c r="BQ29" s="3"/>
-      <c r="BR29" s="3"/>
-      <c r="BS29" s="3"/>
-      <c r="BT29" s="3"/>
-      <c r="BU29" s="3"/>
-      <c r="BV29" s="3"/>
+    <row r="28" spans="2:74" x14ac:dyDescent="0.2">
+      <c r="B28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="3">
+        <v>537</v>
+      </c>
+      <c r="D28" s="3">
+        <v>534</v>
+      </c>
+      <c r="E28" s="3">
+        <v>529</v>
+      </c>
+      <c r="F28" s="3">
+        <f>+T28</f>
+        <v>530</v>
+      </c>
+      <c r="G28" s="3">
+        <v>516</v>
+      </c>
+      <c r="H28" s="3">
+        <v>503</v>
+      </c>
+      <c r="I28" s="3">
+        <v>487</v>
+      </c>
+      <c r="J28" s="3">
+        <f>+U28</f>
+        <v>496</v>
+      </c>
+      <c r="K28" s="3">
+        <v>467</v>
+      </c>
+      <c r="L28" s="3">
+        <v>461</v>
+      </c>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3">
+        <v>558</v>
+      </c>
+      <c r="T28" s="3">
+        <v>530</v>
+      </c>
+      <c r="U28" s="3">
+        <v>496</v>
+      </c>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3"/>
+      <c r="AA28" s="3"/>
+      <c r="AB28" s="3"/>
+      <c r="AC28" s="3"/>
+      <c r="AD28" s="3"/>
+      <c r="AE28" s="3"/>
+      <c r="AF28" s="3"/>
+      <c r="AG28" s="3"/>
+      <c r="AH28" s="3"/>
+      <c r="AI28" s="3"/>
+      <c r="AJ28" s="3"/>
+      <c r="AK28" s="3"/>
+      <c r="AL28" s="3"/>
+      <c r="AM28" s="3"/>
+      <c r="AN28" s="3"/>
+      <c r="AO28" s="3"/>
+      <c r="AP28" s="3"/>
+      <c r="AQ28" s="3"/>
+      <c r="AR28" s="3"/>
+      <c r="AS28" s="3"/>
+      <c r="AT28" s="3"/>
+      <c r="AU28" s="3"/>
+      <c r="AV28" s="3"/>
+      <c r="AW28" s="3"/>
+      <c r="AX28" s="3"/>
+      <c r="AY28" s="3"/>
+      <c r="AZ28" s="3"/>
+      <c r="BA28" s="3"/>
+      <c r="BB28" s="3"/>
+      <c r="BC28" s="3"/>
+      <c r="BD28" s="3"/>
+      <c r="BE28" s="3"/>
+      <c r="BF28" s="3"/>
+      <c r="BG28" s="3"/>
+      <c r="BH28" s="3"/>
+      <c r="BI28" s="3"/>
+      <c r="BJ28" s="3"/>
+      <c r="BK28" s="3"/>
+      <c r="BL28" s="3"/>
+      <c r="BM28" s="3"/>
+      <c r="BN28" s="3"/>
+      <c r="BO28" s="3"/>
+      <c r="BP28" s="3"/>
+      <c r="BQ28" s="3"/>
+      <c r="BR28" s="3"/>
+      <c r="BS28" s="3"/>
+      <c r="BT28" s="3"/>
+      <c r="BU28" s="3"/>
+      <c r="BV28" s="3"/>
     </row>
     <row r="30" spans="2:74" x14ac:dyDescent="0.2">
-      <c r="B30" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
-      <c r="H30" s="6">
-        <f>+H3/D3-1</f>
-        <v>1.1200175689030312E-2</v>
-      </c>
+      <c r="H30" s="3"/>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
@@ -3288,7 +3688,7 @@
     </row>
     <row r="31" spans="2:74" x14ac:dyDescent="0.2">
       <c r="B31" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -3296,22 +3696,49 @@
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="6">
-        <f>+H8/D8-1</f>
-        <v>1.2598425196850505E-2</v>
-      </c>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
+        <f>+H4/D4-1</f>
+        <v>1.1200175689030312E-2</v>
+      </c>
+      <c r="I31" s="6">
+        <f t="shared" ref="I31:N31" si="28">+I4/E4-1</f>
+        <v>1.7508754377188573E-2</v>
+      </c>
+      <c r="J31" s="6">
+        <f t="shared" si="28"/>
+        <v>3.921252218815563E-2</v>
+      </c>
+      <c r="K31" s="6">
+        <f t="shared" si="28"/>
+        <v>6.9806153680931349E-3</v>
+      </c>
+      <c r="L31" s="6">
+        <f t="shared" si="28"/>
+        <v>5.9507004017808729E-2</v>
+      </c>
+      <c r="M31" s="6">
+        <f t="shared" si="28"/>
+        <v>-1</v>
+      </c>
+      <c r="N31" s="6">
+        <f t="shared" si="28"/>
+        <v>-1</v>
+      </c>
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
       <c r="Q31" s="3"/>
       <c r="R31" s="3"/>
-      <c r="S31" s="3"/>
-      <c r="T31" s="3"/>
-      <c r="U31" s="3"/>
+      <c r="S31" s="6" t="e">
+        <f t="shared" ref="S31:U31" si="29">+S4/R4-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T31" s="6">
+        <f t="shared" si="29"/>
+        <v>-6.0068259385670508E-4</v>
+      </c>
+      <c r="U31" s="6">
+        <f>+U4/T4-1</f>
+        <v>1.9957380542578562E-2</v>
+      </c>
       <c r="V31" s="3"/>
       <c r="W31" s="3"/>
       <c r="X31" s="3"/>
@@ -3367,52 +3794,58 @@
       <c r="BV31" s="3"/>
     </row>
     <row r="32" spans="2:74" x14ac:dyDescent="0.2">
-      <c r="B32" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C32" s="6" t="e">
-        <f t="shared" ref="C32:G32" si="12">+C10/C8</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D32" s="6">
-        <f t="shared" si="12"/>
-        <v>0.71732283464566926</v>
-      </c>
-      <c r="E32" s="6">
-        <f t="shared" si="12"/>
-        <v>0.71799999999999997</v>
-      </c>
-      <c r="F32" s="6" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G32" s="6">
-        <f t="shared" si="12"/>
-        <v>0.72613458528951491</v>
-      </c>
-      <c r="H32" s="6">
-        <f>+H10/H8</f>
-        <v>0.71423017107309483</v>
-      </c>
-      <c r="I32" s="6">
-        <f t="shared" ref="I32:J32" si="13">+I10/I8</f>
-        <v>0.71777950310559002</v>
-      </c>
-      <c r="J32" s="6" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
+      <c r="B32" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="13">
+        <f>+H9/D9-1</f>
+        <v>1.2598425196850505E-2</v>
+      </c>
+      <c r="I32" s="13">
+        <f t="shared" ref="I32:N32" si="30">+I9/E9-1</f>
+        <v>3.0399999999999983E-2</v>
+      </c>
+      <c r="J32" s="13">
+        <f t="shared" si="30"/>
+        <v>6.6354410616704662E-3</v>
+      </c>
+      <c r="K32" s="13">
+        <f t="shared" si="30"/>
+        <v>1.1345852895148667E-2</v>
+      </c>
+      <c r="L32" s="13">
+        <f t="shared" si="30"/>
+        <v>6.1430793157076113E-2</v>
+      </c>
+      <c r="M32" s="13">
+        <f t="shared" si="30"/>
+        <v>-1</v>
+      </c>
+      <c r="N32" s="13">
+        <f t="shared" si="30"/>
+        <v>-1</v>
+      </c>
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
       <c r="R32" s="3"/>
-      <c r="S32" s="3"/>
-      <c r="T32" s="3"/>
-      <c r="U32" s="3"/>
+      <c r="S32" s="13" t="e">
+        <f t="shared" ref="S32:U32" si="31">+S9/R9-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T32" s="13">
+        <f t="shared" si="31"/>
+        <v>3.2363450740173549E-2</v>
+      </c>
+      <c r="U32" s="13">
+        <f>+U9/T9-1</f>
+        <v>1.6910601265822889E-2</v>
+      </c>
       <c r="V32" s="3"/>
       <c r="W32" s="3"/>
       <c r="X32" s="3"/>
@@ -3471,49 +3904,79 @@
       <c r="B33" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="6" t="e">
-        <f t="shared" ref="C33:G33" si="14">+C16/C8</f>
+      <c r="C33" s="6">
+        <f t="shared" ref="C33:G33" si="32">+C11/C9</f>
+        <v>0.7211155378486056</v>
+      </c>
+      <c r="D33" s="6">
+        <f t="shared" si="32"/>
+        <v>0.71732283464566926</v>
+      </c>
+      <c r="E33" s="6">
+        <f t="shared" si="32"/>
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="F33" s="6">
+        <f t="shared" si="32"/>
+        <v>0.72287275565964093</v>
+      </c>
+      <c r="G33" s="6">
+        <f t="shared" si="32"/>
+        <v>0.72613458528951491</v>
+      </c>
+      <c r="H33" s="6">
+        <f>+H11/H9</f>
+        <v>0.71423017107309483</v>
+      </c>
+      <c r="I33" s="6">
+        <f t="shared" ref="I33:N33" si="33">+I11/I9</f>
+        <v>0.71777950310559002</v>
+      </c>
+      <c r="J33" s="6">
+        <f t="shared" si="33"/>
+        <v>0.72159751841799147</v>
+      </c>
+      <c r="K33" s="6">
+        <f t="shared" si="33"/>
+        <v>0.72030947775628629</v>
+      </c>
+      <c r="L33" s="6">
+        <f t="shared" si="33"/>
+        <v>0.71575091575091576</v>
+      </c>
+      <c r="M33" s="6" t="e">
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D33" s="6">
-        <f t="shared" si="14"/>
-        <v>0.20393700787401575</v>
-      </c>
-      <c r="E33" s="6">
-        <f t="shared" si="14"/>
-        <v>0.182</v>
-      </c>
-      <c r="F33" s="6" t="e">
-        <f t="shared" si="14"/>
+      <c r="N33" s="6" t="e">
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G33" s="6">
-        <f t="shared" si="14"/>
-        <v>0.24687010954616589</v>
-      </c>
-      <c r="H33" s="6">
-        <f>+H16/H8</f>
-        <v>0.21345256609642302</v>
-      </c>
-      <c r="I33" s="6">
-        <f t="shared" ref="I33:J33" si="15">+I16/I8</f>
-        <v>0.23097826086956522</v>
-      </c>
-      <c r="J33" s="6" t="e">
-        <f t="shared" si="15"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="6" t="e">
+        <f t="shared" ref="P33:U33" si="34">+P11/P9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="3"/>
-      <c r="R33" s="3"/>
-      <c r="S33" s="3"/>
-      <c r="T33" s="3"/>
-      <c r="U33" s="3"/>
+      <c r="Q33" s="6" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R33" s="6" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S33" s="6">
+        <f t="shared" si="34"/>
+        <v>0.72639101582440024</v>
+      </c>
+      <c r="T33" s="6">
+        <f t="shared" si="34"/>
+        <v>0.71983781645569622</v>
+      </c>
+      <c r="U33" s="6">
+        <f t="shared" si="34"/>
+        <v>0.71992609160750753</v>
+      </c>
       <c r="V33" s="3"/>
       <c r="W33" s="3"/>
       <c r="X33" s="3"/>
@@ -3570,51 +4033,81 @@
     </row>
     <row r="34" spans="2:74" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C34" s="6" t="e">
-        <f t="shared" ref="C34:G34" si="16">+C21/C20</f>
+        <v>37</v>
+      </c>
+      <c r="C34" s="6">
+        <f t="shared" ref="C34:G34" si="35">+C17/C9</f>
+        <v>0.22231075697211156</v>
+      </c>
+      <c r="D34" s="6">
+        <f t="shared" si="35"/>
+        <v>0.20393700787401575</v>
+      </c>
+      <c r="E34" s="6">
+        <f t="shared" si="35"/>
+        <v>0.182</v>
+      </c>
+      <c r="F34" s="6">
+        <f t="shared" si="35"/>
+        <v>0.16003122560499611</v>
+      </c>
+      <c r="G34" s="6">
+        <f t="shared" si="35"/>
+        <v>0.24687010954616589</v>
+      </c>
+      <c r="H34" s="6">
+        <f>+H17/H9</f>
+        <v>0.21345256609642302</v>
+      </c>
+      <c r="I34" s="6">
+        <f t="shared" ref="I34:N34" si="36">+I17/I9</f>
+        <v>0.23097826086956522</v>
+      </c>
+      <c r="J34" s="6">
+        <f t="shared" si="36"/>
+        <v>0.21054672353625437</v>
+      </c>
+      <c r="K34" s="6">
+        <f t="shared" si="36"/>
+        <v>0.23829787234042554</v>
+      </c>
+      <c r="L34" s="6">
+        <f t="shared" si="36"/>
+        <v>0.1772893772893773</v>
+      </c>
+      <c r="M34" s="6" t="e">
+        <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D34" s="6">
-        <f t="shared" si="16"/>
-        <v>0.39649122807017545</v>
-      </c>
-      <c r="E34" s="6">
-        <f t="shared" si="16"/>
-        <v>0.21372667068031306</v>
-      </c>
-      <c r="F34" s="6" t="e">
-        <f t="shared" si="16"/>
+      <c r="N34" s="6" t="e">
+        <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G34" s="6">
-        <f t="shared" si="16"/>
-        <v>0.18097014925373134</v>
-      </c>
-      <c r="H34" s="6">
-        <f>+H21/H20</f>
-        <v>0.31097560975609756</v>
-      </c>
-      <c r="I34" s="6">
-        <f t="shared" ref="I34:J34" si="17">+I21/I20</f>
-        <v>0.20200752823086573</v>
-      </c>
-      <c r="J34" s="6" t="e">
-        <f t="shared" si="17"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="6" t="e">
+        <f t="shared" ref="P34:U34" si="37">+P17/P9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
-      <c r="P34" s="3"/>
-      <c r="Q34" s="3"/>
-      <c r="R34" s="3"/>
-      <c r="S34" s="3"/>
-      <c r="T34" s="3"/>
-      <c r="U34" s="3"/>
+      <c r="Q34" s="6" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R34" s="6" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S34" s="6">
+        <f t="shared" si="37"/>
+        <v>0.23991832567636548</v>
+      </c>
+      <c r="T34" s="6">
+        <f t="shared" si="37"/>
+        <v>0.19195015822784811</v>
+      </c>
+      <c r="U34" s="6">
+        <f t="shared" si="37"/>
+        <v>0.22542059710201304</v>
+      </c>
       <c r="V34" s="3"/>
       <c r="W34" s="3"/>
       <c r="X34" s="3"/>
@@ -3670,25 +4163,82 @@
       <c r="BV34" s="3"/>
     </row>
     <row r="35" spans="2:74" x14ac:dyDescent="0.2">
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
+      <c r="B35" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" s="6">
+        <f t="shared" ref="C35:G35" si="38">+C22/C21</f>
+        <v>0.22054794520547946</v>
+      </c>
+      <c r="D35" s="6">
+        <f t="shared" si="38"/>
+        <v>0.39649122807017545</v>
+      </c>
+      <c r="E35" s="6">
+        <f t="shared" si="38"/>
+        <v>0.21372667068031306</v>
+      </c>
+      <c r="F35" s="6">
+        <f t="shared" si="38"/>
+        <v>0.29388942774005822</v>
+      </c>
+      <c r="G35" s="6">
+        <f t="shared" si="38"/>
+        <v>0.18097014925373134</v>
+      </c>
+      <c r="H35" s="6">
+        <f>+H22/H21</f>
+        <v>0.31097560975609756</v>
+      </c>
+      <c r="I35" s="6">
+        <f t="shared" ref="I35:N35" si="39">+I22/I21</f>
+        <v>0.20200752823086573</v>
+      </c>
+      <c r="J35" s="6">
+        <f t="shared" si="39"/>
+        <v>-0.10210696920583469</v>
+      </c>
+      <c r="K35" s="6">
+        <f t="shared" si="39"/>
+        <v>0.20347003154574134</v>
+      </c>
+      <c r="L35" s="6">
+        <f t="shared" si="39"/>
+        <v>0.22641509433962265</v>
+      </c>
+      <c r="M35" s="6" t="e">
+        <f t="shared" si="39"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N35" s="6" t="e">
+        <f t="shared" si="39"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O35" s="3"/>
-      <c r="P35" s="3"/>
-      <c r="Q35" s="3"/>
-      <c r="R35" s="3"/>
-      <c r="S35" s="3"/>
-      <c r="T35" s="3"/>
-      <c r="U35" s="3"/>
+      <c r="P35" s="6" t="e">
+        <f t="shared" ref="P35:U35" si="40">+P22/P21</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q35" s="6" t="e">
+        <f t="shared" si="40"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R35" s="6" t="e">
+        <f t="shared" si="40"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S35" s="6">
+        <f t="shared" si="40"/>
+        <v>0.20424734540911929</v>
+      </c>
+      <c r="T35" s="6">
+        <f t="shared" si="40"/>
+        <v>0.25141623954680337</v>
+      </c>
+      <c r="U35" s="6">
+        <f t="shared" si="40"/>
+        <v>0.13037752414398596</v>
+      </c>
       <c r="V35" s="3"/>
       <c r="W35" s="3"/>
       <c r="X35" s="3"/>
@@ -38079,6 +38629,80 @@
       <c r="BU499" s="3"/>
       <c r="BV499" s="3"/>
     </row>
+    <row r="500" spans="3:74" x14ac:dyDescent="0.2">
+      <c r="C500" s="3"/>
+      <c r="D500" s="3"/>
+      <c r="E500" s="3"/>
+      <c r="F500" s="3"/>
+      <c r="G500" s="3"/>
+      <c r="H500" s="3"/>
+      <c r="I500" s="3"/>
+      <c r="J500" s="3"/>
+      <c r="K500" s="3"/>
+      <c r="L500" s="3"/>
+      <c r="M500" s="3"/>
+      <c r="N500" s="3"/>
+      <c r="O500" s="3"/>
+      <c r="P500" s="3"/>
+      <c r="Q500" s="3"/>
+      <c r="R500" s="3"/>
+      <c r="S500" s="3"/>
+      <c r="T500" s="3"/>
+      <c r="U500" s="3"/>
+      <c r="V500" s="3"/>
+      <c r="W500" s="3"/>
+      <c r="X500" s="3"/>
+      <c r="Y500" s="3"/>
+      <c r="Z500" s="3"/>
+      <c r="AA500" s="3"/>
+      <c r="AB500" s="3"/>
+      <c r="AC500" s="3"/>
+      <c r="AD500" s="3"/>
+      <c r="AE500" s="3"/>
+      <c r="AF500" s="3"/>
+      <c r="AG500" s="3"/>
+      <c r="AH500" s="3"/>
+      <c r="AI500" s="3"/>
+      <c r="AJ500" s="3"/>
+      <c r="AK500" s="3"/>
+      <c r="AL500" s="3"/>
+      <c r="AM500" s="3"/>
+      <c r="AN500" s="3"/>
+      <c r="AO500" s="3"/>
+      <c r="AP500" s="3"/>
+      <c r="AQ500" s="3"/>
+      <c r="AR500" s="3"/>
+      <c r="AS500" s="3"/>
+      <c r="AT500" s="3"/>
+      <c r="AU500" s="3"/>
+      <c r="AV500" s="3"/>
+      <c r="AW500" s="3"/>
+      <c r="AX500" s="3"/>
+      <c r="AY500" s="3"/>
+      <c r="AZ500" s="3"/>
+      <c r="BA500" s="3"/>
+      <c r="BB500" s="3"/>
+      <c r="BC500" s="3"/>
+      <c r="BD500" s="3"/>
+      <c r="BE500" s="3"/>
+      <c r="BF500" s="3"/>
+      <c r="BG500" s="3"/>
+      <c r="BH500" s="3"/>
+      <c r="BI500" s="3"/>
+      <c r="BJ500" s="3"/>
+      <c r="BK500" s="3"/>
+      <c r="BL500" s="3"/>
+      <c r="BM500" s="3"/>
+      <c r="BN500" s="3"/>
+      <c r="BO500" s="3"/>
+      <c r="BP500" s="3"/>
+      <c r="BQ500" s="3"/>
+      <c r="BR500" s="3"/>
+      <c r="BS500" s="3"/>
+      <c r="BT500" s="3"/>
+      <c r="BU500" s="3"/>
+      <c r="BV500" s="3"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{340CE212-9056-49A1-A643-44B9A2F7CDCA}"/>
